--- a/Statistics_Table.xlsx
+++ b/Statistics_Table.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesse/Documents/GitHub/EEID_1A_Mechanistic_Link/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E097D4A7-254D-BB46-9B17-87B162E035B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C4F972-F952-CE40-8CE8-7FFDD02C1B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C9899760-A15E-1B43-8C41-8D3085971ED0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C9899760-A15E-1B43-8C41-8D3085971ED0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Model Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Variability" sheetId="2" r:id="rId2"/>
+    <sheet name="Primary Challenge" sheetId="4" r:id="rId3"/>
+    <sheet name="Secondary Challenge" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="63">
   <si>
     <t>Test</t>
   </si>
@@ -101,9 +104,6 @@
     <t>Log10(Secondary Dose)</t>
   </si>
   <si>
-    <t>Susceptibility to Reinfection: Peak Infection Antibody Levels</t>
-  </si>
-  <si>
     <t>Susceptibility to Reinfection: Recovered  Antibody Levels</t>
   </si>
   <si>
@@ -120,6 +120,114 @@
   </si>
   <si>
     <t>+/- SEM</t>
+  </si>
+  <si>
+    <t>Susceptibility to Reinfection: Active Infection Antibody Levels</t>
+  </si>
+  <si>
+    <t>Susceptibility to Reinfection: Baseline Antibody Levels *SCALED*</t>
+  </si>
+  <si>
+    <t>Susceptibility to Reinfection: Active Infection Antibody Levels *SCALED*</t>
+  </si>
+  <si>
+    <t>Susceptibility to Reinfection: Recovered  Antibody Levels *SCALED*</t>
+  </si>
+  <si>
+    <t>Scaled Antibody Levels DPI -8</t>
+  </si>
+  <si>
+    <t>Scaled Antibody Levels DPI 14</t>
+  </si>
+  <si>
+    <t>Scaled Antibody Levels DPI 41</t>
+  </si>
+  <si>
+    <t>Sham</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Antibody PV</t>
+  </si>
+  <si>
+    <t>Antibody CV</t>
+  </si>
+  <si>
+    <t>Mean IgG 41</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>*Values in red from Hawley et al., 2024</t>
+  </si>
+  <si>
+    <t>Susceptibility CV*</t>
+  </si>
+  <si>
+    <t>SIR Susceptibility</t>
+  </si>
+  <si>
+    <t>Mean Susceptibility</t>
+  </si>
+  <si>
+    <t>Secondary Dose (CCU/mL)</t>
+  </si>
+  <si>
+    <t>Primary Dose (CCU/mL)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>EXCLUDED</t>
+  </si>
+  <si>
+    <t>Secondary Challenge</t>
+  </si>
+  <si>
+    <t>Primary Challenge</t>
+  </si>
+  <si>
+    <t>Sample Size</t>
+  </si>
+  <si>
+    <t>Sham = 0</t>
+  </si>
+  <si>
+    <t>Low = 750</t>
+  </si>
+  <si>
+    <t>High = 30000</t>
+  </si>
+  <si>
+    <t>Mean Susceptibility*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susceptibility to Reinfection: Scaled Baseline Antibody Levels </t>
+  </si>
+  <si>
+    <t>Susceptibility to Reinfection: Scaled Active Infection Antibody Levels</t>
+  </si>
+  <si>
+    <t>Susceptibility to Reinfection: Scaled Recovered  Antibody Levels</t>
+  </si>
+  <si>
+    <t>Mean Antibody Levels (Priming Challenge)</t>
   </si>
 </sst>
 </file>
@@ -129,7 +237,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,8 +266,51 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCC0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFCC0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +323,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -191,7 +360,75 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -201,6 +438,19 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -209,11 +459,109 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -224,7 +572,9 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -242,8 +592,56 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -251,74 +649,258 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,496 +1235,1179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0744273B-71FE-304B-BAAA-08570BCE324B}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="B2:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="A1:H23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="2" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="2" spans="2:9" ht="17" thickBot="1"/>
+    <row r="3" spans="2:9" ht="17" thickBot="1">
+      <c r="B3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E3" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="45"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-3.0680000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-119.08</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.0826000000000001E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.6447E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.76600000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.0430000000000001E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.6101000000000001E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-4.1572999999999999E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.3415E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-1.24</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-3.1671999999999999E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.0089000000000001E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-1.05</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.26823799999999998</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.5273000000000001E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5.92</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4</v>
+      </c>
+      <c r="H10" s="6">
+        <v>3.12E-9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.73203499999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>16.38</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5.2861999999999999E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.2689999999999999E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="17" thickBot="1">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.23305600000000001</v>
+      </c>
+      <c r="E13" s="8">
+        <v>4.2208000000000002E-2</v>
+      </c>
+      <c r="F13" s="8">
+        <v>5.52</v>
+      </c>
+      <c r="G13" s="9">
+        <v>4</v>
+      </c>
+      <c r="H13" s="10">
+        <v>3.3600000000000003E-8</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="71"/>
+      <c r="C15" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="112">
+        <v>-5.8994999999999997</v>
+      </c>
+      <c r="E15" s="112">
+        <v>0.97677000000000003</v>
+      </c>
+      <c r="F15" s="112">
+        <v>-6.04</v>
+      </c>
+      <c r="G15" s="71"/>
+      <c r="H15" s="113">
+        <v>1.5400000000000001E-9</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="71"/>
+      <c r="C16" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="112">
+        <v>2.3560000000000001E-2</v>
+      </c>
+      <c r="E16" s="112">
+        <v>1.09961</v>
+      </c>
+      <c r="F16" s="112">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G16" s="114">
+        <v>1</v>
+      </c>
+      <c r="H16" s="71">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="I16" s="71"/>
+    </row>
+    <row r="17" spans="2:9" ht="17" thickBot="1">
+      <c r="B17" s="115"/>
+      <c r="C17" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="116">
+        <v>1.6894899999999999</v>
+      </c>
+      <c r="E17" s="116">
+        <v>0.28800999999999999</v>
+      </c>
+      <c r="F17" s="116">
+        <v>5.8659999999999997</v>
+      </c>
+      <c r="G17" s="115">
+        <v>1</v>
+      </c>
+      <c r="H17" s="117">
+        <v>4.4599999999999999E-9</v>
+      </c>
+      <c r="I17" s="115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="71"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="71"/>
+      <c r="C19" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="112">
+        <v>-5.9625000000000004</v>
+      </c>
+      <c r="E19" s="112">
+        <v>1.0831999999999999</v>
+      </c>
+      <c r="F19" s="112">
+        <v>-5.5049999999999999</v>
+      </c>
+      <c r="G19" s="71"/>
+      <c r="H19" s="113">
+        <v>3.7E-8</v>
+      </c>
+      <c r="I19" s="71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="71"/>
+      <c r="C20" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="112">
+        <v>-4.9042000000000003</v>
+      </c>
+      <c r="E20" s="112">
+        <v>1.9523999999999999</v>
+      </c>
+      <c r="F20" s="112">
+        <v>-2.46</v>
+      </c>
+      <c r="G20" s="114">
+        <v>1</v>
+      </c>
+      <c r="H20" s="118">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="I20" s="71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="17" thickBot="1">
+      <c r="B21" s="115"/>
+      <c r="C21" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="116">
+        <v>1.8969</v>
+      </c>
+      <c r="E21" s="116">
+        <v>0.3599</v>
+      </c>
+      <c r="F21" s="116">
+        <v>5.27</v>
+      </c>
+      <c r="G21" s="115">
+        <v>1</v>
+      </c>
+      <c r="H21" s="117">
+        <v>1.36E-7</v>
+      </c>
+      <c r="I21" s="115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="119" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="120"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="71"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="120"/>
+      <c r="C23" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="112">
+        <v>-5.4907000000000004</v>
+      </c>
+      <c r="E23" s="112">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="F23" s="112">
+        <v>-5.8869999999999996</v>
+      </c>
+      <c r="G23" s="71"/>
+      <c r="H23" s="113">
+        <v>3.9199999999999997E-9</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="120"/>
+      <c r="C24" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="112">
+        <v>-6.9145000000000003</v>
+      </c>
+      <c r="E24" s="112">
+        <v>3.8098000000000001</v>
+      </c>
+      <c r="F24" s="112">
+        <v>-1.8149999999999999</v>
+      </c>
+      <c r="G24" s="114">
+        <v>1</v>
+      </c>
+      <c r="H24" s="112">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="I24" s="71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="17" thickBot="1">
+      <c r="B25" s="121"/>
+      <c r="C25" s="121" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="116">
+        <v>1.7739</v>
+      </c>
+      <c r="E25" s="116">
+        <v>0.3034</v>
+      </c>
+      <c r="F25" s="116">
+        <v>5.8470000000000004</v>
+      </c>
+      <c r="G25" s="115">
+        <v>1</v>
+      </c>
+      <c r="H25" s="117">
+        <v>5.0099999999999999E-9</v>
+      </c>
+      <c r="I25" s="61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="17" thickBot="1"/>
+    <row r="33" spans="2:9" ht="17" thickBot="1">
+      <c r="B33" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="45"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-3.0680000000000001</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-119.08</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.0826000000000001E-2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3.6447E-2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0.76600000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.0430000000000001E-3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3.6101000000000001E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-4.1572999999999999E-2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3.3415E-2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-1.24</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-3.1671999999999999E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3.0089000000000001E-2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>-1.05</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.26823799999999998</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4.5273000000000001E-2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5.92</v>
+      </c>
+      <c r="G40" s="2">
+        <v>4</v>
+      </c>
+      <c r="H40" s="6">
+        <v>3.12E-9</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.73203499999999999</v>
+      </c>
+      <c r="E41" s="1">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>16.38</v>
+      </c>
+      <c r="G41" s="2">
+        <v>4</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5.2861999999999999E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>4.2689999999999999E-2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="G42" s="2">
+        <v>4</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="17" thickBot="1">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0.23305600000000001</v>
+      </c>
+      <c r="E43" s="8">
+        <v>4.2208000000000002E-2</v>
+      </c>
+      <c r="F43" s="8">
+        <v>5.52</v>
+      </c>
+      <c r="G43" s="9">
+        <v>4</v>
+      </c>
+      <c r="H43" s="10">
+        <v>3.3600000000000003E-8</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="19"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-5.97</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3.7829999999999999</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-1.5780000000000001</v>
+      </c>
+      <c r="H45">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.6830000000000001</v>
+      </c>
+      <c r="E46" s="1">
+        <v>78.543999999999997</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="17" thickBot="1">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1.69</v>
+      </c>
+      <c r="E47" s="8">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F47" s="8">
+        <v>5.8659999999999997</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1</v>
+      </c>
+      <c r="H47" s="13">
+        <v>4.4599999999999999E-9</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="23"/>
+      <c r="C49" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="24">
+        <v>-5.8994999999999997</v>
+      </c>
+      <c r="E49" s="24">
+        <v>0.97677000000000003</v>
+      </c>
+      <c r="F49" s="24">
+        <v>-6.04</v>
+      </c>
+      <c r="G49" s="23"/>
+      <c r="H49" s="25">
+        <v>1.5400000000000001E-9</v>
+      </c>
+      <c r="I49" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="23"/>
+      <c r="C50" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="24">
+        <v>2.3560000000000001E-2</v>
+      </c>
+      <c r="E50" s="24">
+        <v>1.09961</v>
+      </c>
+      <c r="F50" s="24">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G50" s="26">
+        <v>1</v>
+      </c>
+      <c r="H50" s="23">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="2:9" ht="17" thickBot="1">
+      <c r="B51" s="27"/>
+      <c r="C51" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="28">
+        <v>1.6894899999999999</v>
+      </c>
+      <c r="E51" s="28">
+        <v>0.28800999999999999</v>
+      </c>
+      <c r="F51" s="28">
+        <v>5.8659999999999997</v>
+      </c>
+      <c r="G51" s="27">
+        <v>1</v>
+      </c>
+      <c r="H51" s="29">
+        <v>4.4599999999999999E-9</v>
+      </c>
+      <c r="I51" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="C53" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9">
-        <v>-3.0680000000000001</v>
-      </c>
-      <c r="D3" s="9">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="E3" s="9">
-        <v>-119.08</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="D53" s="1">
+        <v>-4.5758000000000001</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1.1914</v>
+      </c>
+      <c r="F53" s="1">
+        <v>-3.8410000000000002</v>
+      </c>
+      <c r="H53" s="11">
+        <v>1.2300000000000001E-5</v>
+      </c>
+      <c r="I53" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1.0826000000000001E-2</v>
-      </c>
-      <c r="D4" s="9">
-        <v>3.6447E-2</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="10">
-        <v>2</v>
-      </c>
-      <c r="G4" s="26">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1.0430000000000001E-3</v>
-      </c>
-      <c r="D5" s="9">
-        <v>3.6101000000000001E-2</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="F5" s="10">
-        <v>2</v>
-      </c>
-      <c r="G5" s="26">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9">
-        <v>-4.1572999999999999E-2</v>
-      </c>
-      <c r="D6" s="9">
-        <v>3.3415E-2</v>
-      </c>
-      <c r="E6" s="9">
-        <v>-1.24</v>
-      </c>
-      <c r="F6" s="10">
-        <v>2</v>
-      </c>
-      <c r="G6" s="26">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="9">
-        <v>-3.1671999999999999E-2</v>
-      </c>
-      <c r="D7" s="9">
-        <v>3.0089000000000001E-2</v>
-      </c>
-      <c r="E7" s="9">
-        <v>-1.05</v>
-      </c>
-      <c r="F7" s="10">
-        <v>2</v>
-      </c>
-      <c r="G7" s="26">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0.26823799999999998</v>
-      </c>
-      <c r="D8" s="9">
-        <v>4.5273000000000001E-2</v>
-      </c>
-      <c r="E8" s="9">
-        <v>5.92</v>
-      </c>
-      <c r="F8" s="10">
-        <v>4</v>
-      </c>
-      <c r="G8" s="27">
-        <v>3.12E-9</v>
-      </c>
-      <c r="H8" s="8" t="s">
+    <row r="54" spans="2:9">
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-33.822000000000003</v>
+      </c>
+      <c r="E54" s="1">
+        <v>13.750999999999999</v>
+      </c>
+      <c r="F54" s="1">
+        <v>-2.46</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" s="12">
+        <v>1.3908999999999999E-2</v>
+      </c>
+      <c r="I54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="17" thickBot="1">
+      <c r="B55" s="7"/>
+      <c r="C55" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="8">
+        <v>1.8969</v>
+      </c>
+      <c r="E55" s="8">
+        <v>0.3599</v>
+      </c>
+      <c r="F55" s="8">
+        <v>5.27</v>
+      </c>
+      <c r="G55" s="7">
+        <v>1</v>
+      </c>
+      <c r="H55" s="13">
+        <v>1.36E-7</v>
+      </c>
+      <c r="I55" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0.73203499999999999</v>
-      </c>
-      <c r="D9" s="9">
-        <v>4.4699999999999997E-2</v>
-      </c>
-      <c r="E9" s="9">
-        <v>16.38</v>
-      </c>
-      <c r="F9" s="10">
-        <v>4</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="8" t="s">
+    <row r="56" spans="2:9">
+      <c r="B56" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="23"/>
+      <c r="C57" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="24">
+        <v>-5.9625000000000004</v>
+      </c>
+      <c r="E57" s="24">
+        <v>1.0831999999999999</v>
+      </c>
+      <c r="F57" s="24">
+        <v>-5.5049999999999999</v>
+      </c>
+      <c r="G57" s="23"/>
+      <c r="H57" s="25">
+        <v>3.7E-8</v>
+      </c>
+      <c r="I57" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="9">
-        <v>5.2861999999999999E-2</v>
-      </c>
-      <c r="D10" s="9">
-        <v>4.2689999999999999E-2</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1.24</v>
-      </c>
-      <c r="F10" s="10">
-        <v>4</v>
-      </c>
-      <c r="G10" s="26">
-        <v>0.216</v>
-      </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="19">
-        <v>0.23305600000000001</v>
-      </c>
-      <c r="D11" s="19">
-        <v>4.2208000000000002E-2</v>
-      </c>
-      <c r="E11" s="19">
-        <v>5.52</v>
-      </c>
-      <c r="F11" s="20">
-        <v>4</v>
-      </c>
-      <c r="G11" s="28">
-        <v>3.3600000000000003E-8</v>
-      </c>
-      <c r="H11" s="15" t="s">
+    <row r="58" spans="2:9">
+      <c r="B58" s="23"/>
+      <c r="C58" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="24">
+        <v>-4.9042000000000003</v>
+      </c>
+      <c r="E58" s="24">
+        <v>1.9523999999999999</v>
+      </c>
+      <c r="F58" s="24">
+        <v>-2.46</v>
+      </c>
+      <c r="G58" s="26">
+        <v>1</v>
+      </c>
+      <c r="H58" s="30">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="17" thickBot="1">
+      <c r="B59" s="27"/>
+      <c r="C59" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="28">
+        <v>1.8969</v>
+      </c>
+      <c r="E59" s="28">
+        <v>0.3599</v>
+      </c>
+      <c r="F59" s="28">
+        <v>5.27</v>
+      </c>
+      <c r="G59" s="27">
+        <v>1</v>
+      </c>
+      <c r="H59" s="29">
+        <v>1.36E-7</v>
+      </c>
+      <c r="I59" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+    <row r="60" spans="2:9">
+      <c r="B60" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="9">
-        <v>-5.97</v>
-      </c>
-      <c r="D13" s="9">
-        <v>3.7829999999999999</v>
-      </c>
-      <c r="E13" s="9">
-        <v>-1.5780000000000001</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7">
-        <v>0.115</v>
-      </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.6830000000000001</v>
-      </c>
-      <c r="D14" s="9">
-        <v>78.543999999999997</v>
-      </c>
-      <c r="E14" s="9">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D61" s="1">
+        <v>-2.1555</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2.1882999999999999</v>
+      </c>
+      <c r="F61" s="1">
+        <v>-0.98499999999999999</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.3246</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="1">
+        <v>-81.346800000000002</v>
+      </c>
+      <c r="E62" s="1">
+        <v>44.821399999999997</v>
+      </c>
+      <c r="F62" s="1">
+        <v>-1.8149999999999999</v>
+      </c>
+      <c r="G62">
         <v>1</v>
       </c>
-      <c r="G14" s="7">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="2" t="s">
+      <c r="H62" s="1">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="I62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="17" thickBot="1">
+      <c r="B63" s="15"/>
+      <c r="C63" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="19">
-        <v>1.69</v>
-      </c>
-      <c r="D15" s="19">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="E15" s="19">
-        <v>5.8659999999999997</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="D63" s="8">
+        <v>1.7739</v>
+      </c>
+      <c r="E63" s="8">
+        <v>0.3034</v>
+      </c>
+      <c r="F63" s="8">
+        <v>5.8470000000000004</v>
+      </c>
+      <c r="G63" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="5">
-        <v>4.4599999999999999E-9</v>
-      </c>
-      <c r="H15" s="15" t="s">
+      <c r="H63" s="13">
+        <v>5.0099999999999999E-9</v>
+      </c>
+      <c r="I63" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
+    <row r="64" spans="2:9">
+      <c r="B64" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="32"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="23"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="32"/>
+      <c r="C65" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="9">
-        <v>-4.5758000000000001</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1.1914</v>
-      </c>
-      <c r="E17" s="9">
-        <v>-3.8410000000000002</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="11">
-        <v>1.2300000000000001E-5</v>
-      </c>
-      <c r="H17" s="8" t="s">
+      <c r="D65" s="24">
+        <v>-5.4907000000000004</v>
+      </c>
+      <c r="E65" s="24">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="F65" s="24">
+        <v>-5.8869999999999996</v>
+      </c>
+      <c r="G65" s="23"/>
+      <c r="H65" s="25">
+        <v>3.9199999999999997E-9</v>
+      </c>
+      <c r="I65" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="9">
-        <v>-33.822000000000003</v>
-      </c>
-      <c r="D18" s="9">
-        <v>13.750999999999999</v>
-      </c>
-      <c r="E18" s="9">
-        <v>-2.46</v>
-      </c>
-      <c r="F18" s="7">
+    <row r="66" spans="2:9">
+      <c r="B66" s="32"/>
+      <c r="C66" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="24">
+        <v>-6.9145000000000003</v>
+      </c>
+      <c r="E66" s="24">
+        <v>3.8098000000000001</v>
+      </c>
+      <c r="F66" s="24">
+        <v>-1.8149999999999999</v>
+      </c>
+      <c r="G66" s="26">
         <v>1</v>
       </c>
-      <c r="G18" s="29">
-        <v>1.3908999999999999E-2</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="H66" s="24">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="I66" s="23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="2" t="s">
+    <row r="67" spans="2:9" ht="17" thickBot="1">
+      <c r="B67" s="33"/>
+      <c r="C67" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="19">
-        <v>1.8969</v>
-      </c>
-      <c r="D19" s="19">
-        <v>0.3599</v>
-      </c>
-      <c r="E19" s="19">
-        <v>5.27</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="D67" s="28">
+        <v>1.7739</v>
+      </c>
+      <c r="E67" s="28">
+        <v>0.3034</v>
+      </c>
+      <c r="F67" s="28">
+        <v>5.8470000000000004</v>
+      </c>
+      <c r="G67" s="27">
         <v>1</v>
       </c>
-      <c r="G19" s="21">
-        <v>1.36E-7</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="9">
-        <v>-2.1555</v>
-      </c>
-      <c r="D21" s="9">
-        <v>2.1882999999999999</v>
-      </c>
-      <c r="E21" s="9">
-        <v>-0.98499999999999999</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="9">
-        <v>0.3246</v>
-      </c>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="9">
-        <v>-81.346800000000002</v>
-      </c>
-      <c r="D22" s="9">
-        <v>44.821399999999997</v>
-      </c>
-      <c r="E22" s="9">
-        <v>-1.8149999999999999</v>
-      </c>
-      <c r="F22" s="7">
-        <v>1</v>
-      </c>
-      <c r="G22" s="9">
-        <v>6.9500000000000006E-2</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="19">
-        <v>1.7739</v>
-      </c>
-      <c r="D23" s="19">
-        <v>0.3034</v>
-      </c>
-      <c r="E23" s="19">
-        <v>5.8470000000000004</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="21">
+      <c r="H67" s="29">
         <v>5.0099999999999999E-9</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="I67" s="34" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1150,4 +2415,543 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930D1074-1A74-E547-BBFB-8A77C2B1659D}">
+  <dimension ref="B3:F13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="17" thickBot="1">
+      <c r="B3" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="E4" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="F4" s="35">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0.17</v>
+      </c>
+      <c r="F5" s="35">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="17" thickBot="1">
+      <c r="B6" s="20"/>
+      <c r="C6" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="37">
+        <v>1.63</v>
+      </c>
+      <c r="F6" s="37">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="35">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E7" s="35">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F7" s="35">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="17" thickBot="1">
+      <c r="B8" s="7"/>
+      <c r="C8" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="82">
+        <v>1.181</v>
+      </c>
+      <c r="E8" s="82">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="F8" s="82">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="39">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E11" s="39">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="F11" s="39">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12">
+        <v>1.181</v>
+      </c>
+      <c r="E12">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="D13">
+        <f>1/D11</f>
+        <v>1.1933174224343677</v>
+      </c>
+      <c r="E13">
+        <f>1/E11</f>
+        <v>2.2421524663677128</v>
+      </c>
+      <c r="F13">
+        <f>1/F11</f>
+        <v>5.208333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FA0919-023E-0748-8817-9142AFFB3DF4}">
+  <dimension ref="B2:G14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="E2" s="64"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="64"/>
+    </row>
+    <row r="4" spans="2:7" ht="17" thickBot="1">
+      <c r="B4" s="52"/>
+      <c r="C4" s="59"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="57">
+        <f>SUM(C5:C7)</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17" thickBot="1"/>
+    <row r="11" spans="2:7" ht="17" thickBot="1">
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
+    </row>
+    <row r="12" spans="2:7" ht="17" customHeight="1">
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17" thickBot="1">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="81"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="76">
+        <v>51</v>
+      </c>
+      <c r="E14" s="63">
+        <v>51</v>
+      </c>
+      <c r="F14" s="63">
+        <v>53</v>
+      </c>
+      <c r="G14" s="65">
+        <f>SUM(D14:F14)</f>
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB4537B-0B5B-694E-BF78-26519239A8E0}">
+  <dimension ref="B1:K12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="0.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11" ht="16" customHeight="1" thickBot="1">
+      <c r="C2" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="106"/>
+      <c r="E2" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="88"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="94" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="20" customHeight="1" thickBot="1">
+      <c r="B4" s="77"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="95">
+        <v>0</v>
+      </c>
+      <c r="F4" s="48">
+        <v>30</v>
+      </c>
+      <c r="G4" s="48">
+        <v>100</v>
+      </c>
+      <c r="H4" s="48">
+        <v>300</v>
+      </c>
+      <c r="I4" s="48">
+        <v>7000</v>
+      </c>
+      <c r="J4" s="96"/>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="90">
+        <v>51</v>
+      </c>
+      <c r="D5" s="109"/>
+      <c r="E5" s="97">
+        <v>3</v>
+      </c>
+      <c r="F5" s="21">
+        <v>12</v>
+      </c>
+      <c r="G5" s="21">
+        <v>12</v>
+      </c>
+      <c r="H5" s="21">
+        <v>11</v>
+      </c>
+      <c r="I5" s="21">
+        <v>12</v>
+      </c>
+      <c r="J5" s="98">
+        <f>SUM(E5:I5)</f>
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="91">
+        <v>51</v>
+      </c>
+      <c r="D6" s="109"/>
+      <c r="E6" s="97">
+        <v>4</v>
+      </c>
+      <c r="F6" s="21">
+        <v>11</v>
+      </c>
+      <c r="G6" s="21">
+        <v>12</v>
+      </c>
+      <c r="H6" s="21">
+        <v>11</v>
+      </c>
+      <c r="I6" s="21">
+        <v>12</v>
+      </c>
+      <c r="J6" s="99">
+        <f t="shared" ref="J6:J7" si="0">SUM(E6:I6)</f>
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="92">
+        <v>53</v>
+      </c>
+      <c r="D7" s="110"/>
+      <c r="E7" s="100">
+        <v>6</v>
+      </c>
+      <c r="F7" s="55">
+        <v>11</v>
+      </c>
+      <c r="G7" s="55">
+        <v>12</v>
+      </c>
+      <c r="H7" s="55">
+        <v>11</v>
+      </c>
+      <c r="I7" s="55">
+        <v>10</v>
+      </c>
+      <c r="J7" s="101">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="17" thickBot="1">
+      <c r="B8" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="105">
+        <v>155</v>
+      </c>
+      <c r="D8" s="111"/>
+      <c r="E8" s="102">
+        <f>SUM(E5:E7)</f>
+        <v>13</v>
+      </c>
+      <c r="F8" s="103">
+        <f t="shared" ref="F8:J8" si="1">SUM(F5:F7)</f>
+        <v>34</v>
+      </c>
+      <c r="G8" s="103">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="H8" s="103">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="J8" s="104">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="J3:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E8:I8" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/Statistics_Table.xlsx
+++ b/Statistics_Table.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesse/Documents/GitHub/EEID_1A_Mechanistic_Link/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C4F972-F952-CE40-8CE8-7FFDD02C1B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5499CA0A-8480-6448-AEF2-774349C76BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C9899760-A15E-1B43-8C41-8D3085971ED0}"/>
+    <workbookView xWindow="4180" yWindow="500" windowWidth="31740" windowHeight="19660" activeTab="6" xr2:uid="{C9899760-A15E-1B43-8C41-8D3085971ED0}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Results" sheetId="1" r:id="rId1"/>
-    <sheet name="Variability" sheetId="2" r:id="rId2"/>
-    <sheet name="Primary Challenge" sheetId="4" r:id="rId3"/>
-    <sheet name="Secondary Challenge" sheetId="3" r:id="rId4"/>
+    <sheet name="Primary Post-Hoc" sheetId="5" r:id="rId2"/>
+    <sheet name="Variability" sheetId="2" r:id="rId3"/>
+    <sheet name="Primary Challenge" sheetId="4" r:id="rId4"/>
+    <sheet name="Secondary Challenge" sheetId="3" r:id="rId5"/>
+    <sheet name="Bird Accounting" sheetId="6" r:id="rId6"/>
+    <sheet name="Variability Definition Table" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,14 +41,40 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="63">
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="231">
   <si>
     <t>Mean Estimate</t>
   </si>
@@ -65,24 +94,6 @@
     <t>Primary Treatment High</t>
   </si>
   <si>
-    <t>DPI 14</t>
-  </si>
-  <si>
-    <t>DPI 41</t>
-  </si>
-  <si>
-    <t>Primary Treatment Low : DPI 14</t>
-  </si>
-  <si>
-    <t>Primary Treatment High : DPI 14</t>
-  </si>
-  <si>
-    <t>Primary Treatment Low : DPI 41</t>
-  </si>
-  <si>
-    <t>Primary Treatment High: DPI 41</t>
-  </si>
-  <si>
     <t>&lt; 2e-16</t>
   </si>
   <si>
@@ -98,21 +109,12 @@
     <t>Susceptibility to Reinfection: Baseline Antibody Levels</t>
   </si>
   <si>
-    <t>Antibody OD DPI -8</t>
-  </si>
-  <si>
     <t>Log10(Secondary Dose)</t>
   </si>
   <si>
     <t>Susceptibility to Reinfection: Recovered  Antibody Levels</t>
   </si>
   <si>
-    <t>Antibody OD DPI 14</t>
-  </si>
-  <si>
-    <t>Antibody OD DPI 41</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -134,15 +136,6 @@
     <t>Susceptibility to Reinfection: Recovered  Antibody Levels *SCALED*</t>
   </si>
   <si>
-    <t>Scaled Antibody Levels DPI -8</t>
-  </si>
-  <si>
-    <t>Scaled Antibody Levels DPI 14</t>
-  </si>
-  <si>
-    <t>Scaled Antibody Levels DPI 41</t>
-  </si>
-  <si>
     <t>Sham</t>
   </si>
   <si>
@@ -194,9 +187,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>EXCLUDED</t>
-  </si>
-  <si>
     <t>Secondary Challenge</t>
   </si>
   <si>
@@ -228,16 +218,566 @@
   </si>
   <si>
     <t>Mean Antibody Levels (Priming Challenge)</t>
+  </si>
+  <si>
+    <t>0.045 (0.04)</t>
+  </si>
+  <si>
+    <t>0.048 (0.17)</t>
+  </si>
+  <si>
+    <t>0.058 (0.26)</t>
+  </si>
+  <si>
+    <t>1.181 (0.9)</t>
+  </si>
+  <si>
+    <t>0.446 (1.63)</t>
+  </si>
+  <si>
+    <t>0.192 (2.51)</t>
+  </si>
+  <si>
+    <t>Mean (CV)</t>
+  </si>
+  <si>
+    <t>Phase 1</t>
+  </si>
+  <si>
+    <t>Phase 2</t>
+  </si>
+  <si>
+    <t>DPPI 14</t>
+  </si>
+  <si>
+    <t>DPPI 41</t>
+  </si>
+  <si>
+    <t>Response Variable</t>
+  </si>
+  <si>
+    <t>Predictor Variables</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Primary Treatment Low : DPPI 14</t>
+  </si>
+  <si>
+    <t>Primary Treatment High : DPPI 14</t>
+  </si>
+  <si>
+    <t>Primary Treatment Low : DPPI 41</t>
+  </si>
+  <si>
+    <t>Primary Treatment High: DPPI 41</t>
+  </si>
+  <si>
+    <t>Scaled Antibody Levels DPPI -8</t>
+  </si>
+  <si>
+    <t>Scaled Antibody Levels DPPI 14</t>
+  </si>
+  <si>
+    <t>Scaled Antibody Levels DPPI 41</t>
+  </si>
+  <si>
+    <t>Mean IgY 41</t>
+  </si>
+  <si>
+    <t>Antibody OD DPPI -8</t>
+  </si>
+  <si>
+    <t>Antibody OD DPPI 14</t>
+  </si>
+  <si>
+    <t>Antibody OD DPPI 41</t>
+  </si>
+  <si>
+    <t>Not Recovered</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>+/- SE</t>
+  </si>
+  <si>
+    <t>z-ratio</t>
+  </si>
+  <si>
+    <t>Sham - Low</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t>DPPI -8</t>
+  </si>
+  <si>
+    <t>Sham - High</t>
+  </si>
+  <si>
+    <t>Low - High</t>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+  </si>
+  <si>
+    <t>*Results given on the log scale; Sham reference category</t>
+  </si>
+  <si>
+    <t>High-Sham</t>
+  </si>
+  <si>
+    <t>High-Low</t>
+  </si>
+  <si>
+    <t>Sham-Low</t>
+  </si>
+  <si>
+    <t>*Results given on the log scale; High reference category</t>
+  </si>
+  <si>
+    <t>Primary Treatment</t>
+  </si>
+  <si>
+    <t>Mean IgY</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Number of Individuals</t>
+  </si>
+  <si>
+    <t>Bird ID</t>
+  </si>
+  <si>
+    <t>Seropositive D-8</t>
+  </si>
+  <si>
+    <t>Reason Omitted</t>
+  </si>
+  <si>
+    <t>Included Analyses</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Secondary Treatment</t>
+  </si>
+  <si>
+    <t>Sham w/ Pathogen Load &gt; 50</t>
+  </si>
+  <si>
+    <t>5.2E2 DPPI 41</t>
+  </si>
+  <si>
+    <t>1.99E2 DPPI 41</t>
+  </si>
+  <si>
+    <t>1.04E2 DPPI 41</t>
+  </si>
+  <si>
+    <t>6.77E1 DPPI 41 + no other path load primary</t>
+  </si>
+  <si>
+    <t>1.92E2 DPPI 41</t>
+  </si>
+  <si>
+    <t>Sham w/ Eye Score 0.5</t>
+  </si>
+  <si>
+    <t>0.5 R eye DPPI 21</t>
+  </si>
+  <si>
+    <t>0.5 L eye DPPI 21</t>
+  </si>
+  <si>
+    <t>1.99E2 DPPI 7</t>
+  </si>
+  <si>
+    <t>1.68E2 DPPI -8 + no other path load</t>
+  </si>
+  <si>
+    <t>0.071 OD DPPI -8</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>Excluded Analyses</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Excluded From PLoS Paper</t>
+  </si>
+  <si>
+    <t>L eye score 0.5 DPSI 14, but low pathogen load (3.66 copies)</t>
+  </si>
+  <si>
+    <t>Questionable</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Not considered reinfected because eyescore was not &gt;0.5 for more than one day</t>
+  </si>
+  <si>
+    <t>Possibly not considered reinfected? I count 7 reinfected Low dose birds, but only see 6 in table 2.</t>
+  </si>
+  <si>
+    <t>R eye score 1.5 DPSI 7, but no path load any DPSI</t>
+  </si>
+  <si>
+    <t>Antibodies Primary, Variability Primary</t>
+  </si>
+  <si>
+    <t>All Secondary</t>
+  </si>
+  <si>
+    <t>Before Omitting Birds</t>
+  </si>
+  <si>
+    <t>Birds Omitted - Primary</t>
+  </si>
+  <si>
+    <t>Secondary Analysis</t>
+  </si>
+  <si>
+    <t>Additional Birds Omitted - Secondary</t>
+  </si>
+  <si>
+    <t>Total N</t>
+  </si>
+  <si>
+    <t>Sample Sizes</t>
+  </si>
+  <si>
+    <t>Number Omitted</t>
+  </si>
+  <si>
+    <t>Omitted Birds</t>
+  </si>
+  <si>
+    <t>Antibody Mean + Variance Priming Analysis</t>
+  </si>
+  <si>
+    <t>Questionable Birds</t>
+  </si>
+  <si>
+    <t>No longer omitted</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>Not considered infected.</t>
+  </si>
+  <si>
+    <t>Considered infected</t>
+  </si>
+  <si>
+    <t>Not omitted</t>
+  </si>
+  <si>
+    <t>Old Reinfection</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>big effect on antibodies + susceptibility</t>
+  </si>
+  <si>
+    <t>Variation Metric</t>
+  </si>
+  <si>
+    <t>Pros</t>
+  </si>
+  <si>
+    <t>Cons</t>
+  </si>
+  <si>
+    <t>Coefficient of Variation (CV)</t>
+  </si>
+  <si>
+    <t>Proportional Variability (PV)</t>
+  </si>
+  <si>
+    <t>Second-Order Coefficient of Variation (V2)</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>CV = σ/μ</t>
+  </si>
+  <si>
+    <t>Commonly used</t>
+  </si>
+  <si>
+    <t>Uses</t>
+  </si>
+  <si>
+    <t>Used when data is measured only on scales with a meaningful zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> problematic when data are positive and negative</t>
+  </si>
+  <si>
+    <t>Lacks upper bound</t>
+  </si>
+  <si>
+    <t>Lacks intuitive and meaningful interpretation</t>
+  </si>
+  <si>
+    <t>Highly sensitive to outliers</t>
+  </si>
+  <si>
+    <t>Very affected by the mean and errors or changes in the mean</t>
+  </si>
+  <si>
+    <t>Shows the amount of variability in relation to the mean of the population</t>
+  </si>
+  <si>
+    <t>Ratio of the standard deviation squared  to the sum of the  mean squared plus the standard deviation squared; a ratio of second-order moments</t>
+  </si>
+  <si>
+    <t>Ratio of the standard deviation to the mean, or it's absolute value; a ratio of second-order to first-order moments</t>
+  </si>
+  <si>
+    <t>Particularly useful for comparing variations between different data sets where the units of measurement differ, or which have large differences in mean</t>
+  </si>
+  <si>
+    <t>V2 and abs(CV) are related: V2 -&gt; 0 as CV -&gt; 0 and V2 -&gt; 1 as CV -&gt; inf</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t>V2 = 0.x -&gt; the distance of the point x1, x… , xn) to their mean point (xbar, … , xbar) is x% of its distance to the origin (0, …. ,0).</t>
+  </si>
+  <si>
+    <t>Shows the proportion of variability near the mean relative to the total possible spread</t>
+  </si>
+  <si>
+    <t>x% of the total variability (from the origin) is due to the variability around the mean</t>
+  </si>
+  <si>
+    <t>The distance of the data points from the mean is x% of their distance from the origin</t>
+  </si>
+  <si>
+    <t>How much variation is there ralative to the mean</t>
+  </si>
+  <si>
+    <t>V2 = σ^2 / σ^2 + μ^2</t>
+  </si>
+  <si>
+    <t>Data must be normally distributed around the mean</t>
+  </si>
+  <si>
+    <t>Used when data is centered around the mean, but has varying distances</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>0 to infinity</t>
+  </si>
+  <si>
+    <t>0 to 1</t>
+  </si>
+  <si>
+    <t>More robust to outliers</t>
+  </si>
+  <si>
+    <t>Bound between 0 and 1</t>
+  </si>
+  <si>
+    <t>Relatively stable when mean changes</t>
+  </si>
+  <si>
+    <t>Good for comparative studies where measurements vary in magnitude</t>
+  </si>
+  <si>
+    <t>Still confusing interpretaion</t>
+  </si>
+  <si>
+    <t>not fully resistant to outliers</t>
+  </si>
+  <si>
+    <t>Most robust when data are normally distributed around the mean</t>
+  </si>
+  <si>
+    <t>Shows the proportion of the total variability from zero that is due to variability around the mean</t>
+  </si>
+  <si>
+    <t>Used when data are not normally distributed or do not have defined means</t>
+  </si>
+  <si>
+    <t>Independent of the mean</t>
+  </si>
+  <si>
+    <t>No normality assumptions</t>
+  </si>
+  <si>
+    <t>Robust to outliers</t>
+  </si>
+  <si>
+    <t>Gamma Distributed Data: (1 + shape) ^-1/2</t>
+  </si>
+  <si>
+    <t>Special Cases</t>
+  </si>
+  <si>
+    <t>Gamma Distributed Data</t>
+  </si>
+  <si>
+    <t>Shape ^ -1/2 = 1/sqrt(shape)</t>
+  </si>
+  <si>
+    <t>Dependence on shape parameter accounts for skew</t>
+  </si>
+  <si>
+    <t>Problematic when shape parameter is small (alpha &lt; 1)</t>
+  </si>
+  <si>
+    <t>Gini Coefficient</t>
+  </si>
+  <si>
+    <t>An index for the degree of inequality in the distribution of income or wealth, generally used to estimate how far a country's wealth or income distribution deviates from an equal distribution</t>
+  </si>
+  <si>
+    <t>G ~ 1 / (2*shape + 1)</t>
+  </si>
+  <si>
+    <t>Parametric approximation of Gamma Distributed Data</t>
+  </si>
+  <si>
+    <t>Xbar is the mean of all values</t>
+  </si>
+  <si>
+    <t>Used to measure dispersion; originally used to measure income inequality in economics</t>
+  </si>
+  <si>
+    <t>Measure of inequality, therefore outliers influence it more</t>
+  </si>
+  <si>
+    <t>Established in economics</t>
+  </si>
+  <si>
+    <t>Still includes mean in calculation</t>
+  </si>
+  <si>
+    <t>Designed specifically to look at inequality</t>
+  </si>
+  <si>
+    <t>Less robust to outliers</t>
+  </si>
+  <si>
+    <t>G = 0 &gt; completely equal distribution; G = 1 &gt; completely unequal distribution</t>
+  </si>
+  <si>
+    <t>The bottom x% of individuals have y% of the total income of the population</t>
+  </si>
+  <si>
+    <t>Not great for small sample sizes</t>
+  </si>
+  <si>
+    <t>Less established</t>
+  </si>
+  <si>
+    <t>PV = 0 &gt; no variability (all values are identical); PV = 1 &gt; high variability</t>
+  </si>
+  <si>
+    <t>Measure of relative variability in the dataset</t>
+  </si>
+  <si>
+    <t>Approximation of Gini</t>
+  </si>
+  <si>
+    <t>Where Xi and Xj are individual values in the dataset,</t>
+  </si>
+  <si>
+    <t>n is the total number of values,</t>
+  </si>
+  <si>
+    <t>Where σ^2 is the variance,</t>
+  </si>
+  <si>
+    <t>and  μ is the mean of the dataset</t>
+  </si>
+  <si>
+    <t>Where  σ is the standard deviation,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A scale-free measure of variability which quantifies the relative difference between all pairs of values in a dataset </t>
+  </si>
+  <si>
+    <t>For highly skewed data, V2 may not capture variability effectively</t>
+  </si>
+  <si>
+    <t>Where C = number of unique pairwise comparisons between zi and zj,</t>
+  </si>
+  <si>
+    <t>Zi and Zj are individual values in the dataset</t>
+  </si>
+  <si>
+    <t>Max and Min(Zi, Zj) are the larger and smaller of the two values in each pair</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Gini</t>
+  </si>
+  <si>
+    <t>Gamma CV (population estimate)</t>
+  </si>
+  <si>
+    <t>Gamma V2 (population estimate)</t>
+  </si>
+  <si>
+    <t>Used to estimate the population-level variability that follows a gamma distribution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -309,6 +849,21 @@
       <color theme="1"/>
       <name val="ArialMT"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -331,18 +886,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -378,6 +933,58 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -595,6 +1202,19 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -672,11 +1292,245 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -706,7 +1560,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -725,10 +1578,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -749,158 +1598,492 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -916,6 +2099,75 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1235,10 +2487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0744273B-71FE-304B-BAAA-08570BCE324B}">
-  <dimension ref="B2:I67"/>
+  <dimension ref="B2:I105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" topLeftCell="A71" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1254,32 +2506,32 @@
   <sheetData>
     <row r="2" spans="2:9" ht="17" thickBot="1"/>
     <row r="3" spans="2:9" ht="17" thickBot="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="45"/>
+      <c r="E3" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1291,466 +2543,456 @@
     </row>
     <row r="5" spans="2:9">
       <c r="C5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>-3.0680000000000001</v>
+        <v>-3.0731000000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>2.7494999999999999E-2</v>
       </c>
       <c r="F5" s="1">
-        <v>-119.08</v>
+        <v>-111.77</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="C6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>1.0826000000000001E-2</v>
+        <v>1.5795E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>3.6447E-2</v>
+        <v>3.7928999999999997E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>0.3</v>
+        <v>0.42</v>
       </c>
       <c r="G6" s="2">
         <v>2</v>
       </c>
       <c r="H6" s="5">
-        <v>0.76600000000000001</v>
+        <v>0.67700000000000005</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>1.0430000000000001E-3</v>
+        <v>6.0229999999999997E-3</v>
       </c>
       <c r="E7" s="1">
-        <v>3.6101000000000001E-2</v>
+        <v>3.7587000000000002E-2</v>
       </c>
       <c r="F7" s="1">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="G7" s="2">
         <v>2</v>
       </c>
       <c r="H7" s="5">
-        <v>0.97699999999999998</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="C8" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1">
-        <v>-4.1572999999999999E-2</v>
+        <v>-4.3376999999999999E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>3.3415E-2</v>
+        <v>3.6152999999999998E-2</v>
       </c>
       <c r="F8" s="1">
-        <v>-1.24</v>
+        <v>-1.2</v>
       </c>
       <c r="G8" s="2">
         <v>2</v>
       </c>
       <c r="H8" s="5">
-        <v>0.21299999999999999</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="C9" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1">
-        <v>-3.1671999999999999E-2</v>
+        <v>-2.5803E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>3.0089000000000001E-2</v>
+        <v>3.2079999999999997E-2</v>
       </c>
       <c r="F9" s="1">
-        <v>-1.05</v>
+        <v>-0.8</v>
       </c>
       <c r="G9" s="2">
         <v>2</v>
       </c>
       <c r="H9" s="5">
-        <v>0.29299999999999998</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="C10" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1">
-        <v>0.26823799999999998</v>
+        <v>0.26997199999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>4.5273000000000001E-2</v>
+        <v>4.7579000000000003E-2</v>
       </c>
       <c r="F10" s="1">
-        <v>5.92</v>
+        <v>5.67</v>
       </c>
       <c r="G10" s="2">
         <v>4</v>
       </c>
       <c r="H10" s="6">
-        <v>3.12E-9</v>
+        <v>1.39E-8</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="C11" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1">
-        <v>0.73203499999999999</v>
+        <v>0.73377599999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>4.4699999999999997E-2</v>
+        <v>4.7021E-2</v>
       </c>
       <c r="F11" s="1">
-        <v>16.38</v>
+        <v>15.61</v>
       </c>
       <c r="G11" s="2">
         <v>4</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="C12" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1">
-        <v>5.2861999999999999E-2</v>
+        <v>4.6981000000000002E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>4.2689999999999999E-2</v>
+        <v>4.4378000000000001E-2</v>
       </c>
       <c r="F12" s="1">
-        <v>1.24</v>
+        <v>1.06</v>
       </c>
       <c r="G12" s="2">
         <v>4</v>
       </c>
       <c r="H12" s="5">
-        <v>0.216</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="17" thickBot="1">
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D13" s="8">
-        <v>0.23305600000000001</v>
+        <v>0.22715099999999999</v>
       </c>
       <c r="E13" s="8">
-        <v>4.2208000000000002E-2</v>
+        <v>4.3901999999999997E-2</v>
       </c>
       <c r="F13" s="8">
-        <v>5.52</v>
+        <v>5.17</v>
       </c>
       <c r="G13" s="9">
         <v>4</v>
       </c>
       <c r="H13" s="10">
-        <v>3.3600000000000003E-8</v>
+        <v>2.29E-7</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-5.8735999999999997</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.9768</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-6.0129999999999999</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1.8199999999999999E-9</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.1736</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.1281000000000001</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.154</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="17" thickBot="1">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1.6708000000000001</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.28810000000000002</v>
+      </c>
+      <c r="F17" s="8">
+        <v>5.7990000000000004</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13">
+        <v>6.6700000000000003E-9</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-5.8380000000000001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.0837000000000001</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-5.3869999999999996</v>
+      </c>
+      <c r="H19" s="11">
+        <v>7.17E-8</v>
+      </c>
+      <c r="I19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-4.9686000000000003</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.9950000000000001</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="17" thickBot="1">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1.8681000000000001</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.35949999999999999</v>
+      </c>
+      <c r="F21" s="8">
+        <v>5.1959999999999997</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13">
+        <v>2.03E-7</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-5.3967000000000001</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.93520000000000003</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-5.7709999999999999</v>
+      </c>
+      <c r="H23" s="11">
+        <v>7.8899999999999998E-9</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-6.9539</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.8020999999999998</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-1.829</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="17" thickBot="1">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1.7504999999999999</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.30359999999999998</v>
+      </c>
+      <c r="F25" s="8">
+        <v>5.7670000000000003</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13">
+        <v>8.09E-9</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="17" thickBot="1">
+      <c r="B32" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="163"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="163"/>
+    </row>
+    <row r="33" spans="2:9" ht="17" thickBot="1">
+      <c r="B33" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="43" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="71"/>
-      <c r="C15" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="112">
-        <v>-5.8994999999999997</v>
-      </c>
-      <c r="E15" s="112">
-        <v>0.97677000000000003</v>
-      </c>
-      <c r="F15" s="112">
-        <v>-6.04</v>
-      </c>
-      <c r="G15" s="71"/>
-      <c r="H15" s="113">
-        <v>1.5400000000000001E-9</v>
-      </c>
-      <c r="I15" s="41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="71"/>
-      <c r="C16" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="112">
-        <v>2.3560000000000001E-2</v>
-      </c>
-      <c r="E16" s="112">
-        <v>1.09961</v>
-      </c>
-      <c r="F16" s="112">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G16" s="114">
+      <c r="F33" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="71">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="I16" s="71"/>
-    </row>
-    <row r="17" spans="2:9" ht="17" thickBot="1">
-      <c r="B17" s="115"/>
-      <c r="C17" s="115" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="116">
-        <v>1.6894899999999999</v>
-      </c>
-      <c r="E17" s="116">
-        <v>0.28800999999999999</v>
-      </c>
-      <c r="F17" s="116">
-        <v>5.8659999999999997</v>
-      </c>
-      <c r="G17" s="115">
-        <v>1</v>
-      </c>
-      <c r="H17" s="117">
-        <v>4.4599999999999999E-9</v>
-      </c>
-      <c r="I17" s="115" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="71"/>
-      <c r="C19" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="112">
-        <v>-5.9625000000000004</v>
-      </c>
-      <c r="E19" s="112">
-        <v>1.0831999999999999</v>
-      </c>
-      <c r="F19" s="112">
-        <v>-5.5049999999999999</v>
-      </c>
-      <c r="G19" s="71"/>
-      <c r="H19" s="113">
-        <v>3.7E-8</v>
-      </c>
-      <c r="I19" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="71"/>
-      <c r="C20" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="112">
-        <v>-4.9042000000000003</v>
-      </c>
-      <c r="E20" s="112">
-        <v>1.9523999999999999</v>
-      </c>
-      <c r="F20" s="112">
-        <v>-2.46</v>
-      </c>
-      <c r="G20" s="114">
-        <v>1</v>
-      </c>
-      <c r="H20" s="118">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="I20" s="71" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="17" thickBot="1">
-      <c r="B21" s="115"/>
-      <c r="C21" s="115" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="116">
-        <v>1.8969</v>
-      </c>
-      <c r="E21" s="116">
-        <v>0.3599</v>
-      </c>
-      <c r="F21" s="116">
-        <v>5.27</v>
-      </c>
-      <c r="G21" s="115">
-        <v>1</v>
-      </c>
-      <c r="H21" s="117">
-        <v>1.36E-7</v>
-      </c>
-      <c r="I21" s="115" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="120"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="71"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="120"/>
-      <c r="C23" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="112">
-        <v>-5.4907000000000004</v>
-      </c>
-      <c r="E23" s="112">
-        <v>0.93259999999999998</v>
-      </c>
-      <c r="F23" s="112">
-        <v>-5.8869999999999996</v>
-      </c>
-      <c r="G23" s="71"/>
-      <c r="H23" s="113">
-        <v>3.9199999999999997E-9</v>
-      </c>
-      <c r="I23" s="41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="120"/>
-      <c r="C24" s="120" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="112">
-        <v>-6.9145000000000003</v>
-      </c>
-      <c r="E24" s="112">
-        <v>3.8098000000000001</v>
-      </c>
-      <c r="F24" s="112">
-        <v>-1.8149999999999999</v>
-      </c>
-      <c r="G24" s="114">
-        <v>1</v>
-      </c>
-      <c r="H24" s="112">
-        <v>6.9500000000000006E-2</v>
-      </c>
-      <c r="I24" s="71" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="17" thickBot="1">
-      <c r="B25" s="121"/>
-      <c r="C25" s="121" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="116">
-        <v>1.7739</v>
-      </c>
-      <c r="E25" s="116">
-        <v>0.3034</v>
-      </c>
-      <c r="F25" s="116">
-        <v>5.8470000000000004</v>
-      </c>
-      <c r="G25" s="115">
-        <v>1</v>
-      </c>
-      <c r="H25" s="117">
-        <v>5.0099999999999999E-9</v>
-      </c>
-      <c r="I25" s="61" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="17" thickBot="1"/>
-    <row r="33" spans="2:9" ht="17" thickBot="1">
-      <c r="B33" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="45"/>
+      <c r="I33" s="42"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1762,203 +3004,204 @@
     </row>
     <row r="35" spans="2:9">
       <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="1">
-        <v>-3.0680000000000001</v>
-      </c>
-      <c r="E35" s="1">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="F35" s="1">
-        <v>-119.08</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D35" s="159">
+        <v>-3.074039</v>
+      </c>
+      <c r="E35" s="159">
+        <v>2.7491000000000002E-2</v>
+      </c>
+      <c r="F35" s="159">
+        <v>-111.82</v>
+      </c>
+      <c r="G35" s="159"/>
       <c r="H35" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1.0826000000000001E-2</v>
-      </c>
-      <c r="E36" s="1">
-        <v>3.6447E-2</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G36" s="2">
+        <v>4</v>
+      </c>
+      <c r="D36" s="159">
+        <v>1.6737999999999999E-2</v>
+      </c>
+      <c r="E36" s="159">
+        <v>3.7922999999999998E-2</v>
+      </c>
+      <c r="F36" s="159">
+        <v>0.44</v>
+      </c>
+      <c r="G36" s="160">
         <v>2</v>
       </c>
-      <c r="H36" s="5">
-        <v>0.76600000000000001</v>
+      <c r="H36" s="159">
+        <v>0.65900000000000003</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1.0430000000000001E-3</v>
-      </c>
-      <c r="E37" s="1">
-        <v>3.6101000000000001E-2</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="G37" s="2">
+        <v>5</v>
+      </c>
+      <c r="D37" s="159">
+        <v>6.9629999999999996E-3</v>
+      </c>
+      <c r="E37" s="159">
+        <v>3.7581000000000003E-2</v>
+      </c>
+      <c r="F37" s="159">
+        <v>0.19</v>
+      </c>
+      <c r="G37" s="160">
         <v>2</v>
       </c>
-      <c r="H37" s="5">
-        <v>0.97699999999999998</v>
+      <c r="H37" s="159">
+        <v>0.85299999999999998</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="1">
-        <v>-4.1572999999999999E-2</v>
-      </c>
-      <c r="E38" s="1">
-        <v>3.3415E-2</v>
-      </c>
-      <c r="F38" s="1">
-        <v>-1.24</v>
-      </c>
-      <c r="G38" s="2">
+        <v>57</v>
+      </c>
+      <c r="D38" s="159">
+        <v>-4.3858000000000001E-2</v>
+      </c>
+      <c r="E38" s="159">
+        <v>3.6143000000000002E-2</v>
+      </c>
+      <c r="F38" s="159">
+        <v>-1.21</v>
+      </c>
+      <c r="G38" s="160">
         <v>2</v>
       </c>
-      <c r="H38" s="5">
-        <v>0.21299999999999999</v>
+      <c r="H38" s="159">
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="1">
-        <v>-3.1671999999999999E-2</v>
-      </c>
-      <c r="E39" s="1">
-        <v>3.0089000000000001E-2</v>
-      </c>
-      <c r="F39" s="1">
-        <v>-1.05</v>
-      </c>
-      <c r="G39" s="2">
+        <v>58</v>
+      </c>
+      <c r="D39" s="159">
+        <v>-2.3910000000000001E-2</v>
+      </c>
+      <c r="E39" s="159">
+        <v>3.2069E-2</v>
+      </c>
+      <c r="F39" s="159">
+        <v>-0.75</v>
+      </c>
+      <c r="G39" s="160">
         <v>2</v>
       </c>
-      <c r="H39" s="5">
-        <v>0.29299999999999998</v>
+      <c r="H39" s="159">
+        <v>0.45600000000000002</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.26823799999999998</v>
-      </c>
-      <c r="E40" s="1">
-        <v>4.5273000000000001E-2</v>
-      </c>
-      <c r="F40" s="1">
-        <v>5.92</v>
-      </c>
-      <c r="G40" s="2">
+        <v>62</v>
+      </c>
+      <c r="D40" s="159">
+        <v>0.27043800000000001</v>
+      </c>
+      <c r="E40" s="159">
+        <v>4.7565000000000003E-2</v>
+      </c>
+      <c r="F40" s="159">
+        <v>5.69</v>
+      </c>
+      <c r="G40" s="160">
         <v>4</v>
       </c>
-      <c r="H40" s="6">
-        <v>3.12E-9</v>
+      <c r="H40" s="11">
+        <v>1.3000000000000001E-8</v>
       </c>
       <c r="I40" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.73203499999999999</v>
-      </c>
-      <c r="E41" s="1">
-        <v>4.4699999999999997E-2</v>
-      </c>
-      <c r="F41" s="1">
-        <v>16.38</v>
-      </c>
-      <c r="G41" s="2">
+        <v>63</v>
+      </c>
+      <c r="D41" s="159">
+        <v>0.73424699999999998</v>
+      </c>
+      <c r="E41" s="159">
+        <v>4.7005999999999999E-2</v>
+      </c>
+      <c r="F41" s="159">
+        <v>15.62</v>
+      </c>
+      <c r="G41" s="160">
         <v>4</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="1">
-        <v>5.2861999999999999E-2</v>
-      </c>
-      <c r="E42" s="1">
-        <v>4.2689999999999999E-2</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1.24</v>
-      </c>
-      <c r="G42" s="2">
+        <v>64</v>
+      </c>
+      <c r="D42" s="159">
+        <v>4.5085E-2</v>
+      </c>
+      <c r="E42" s="159">
+        <v>4.4363E-2</v>
+      </c>
+      <c r="F42" s="159">
+        <v>1.02</v>
+      </c>
+      <c r="G42" s="160">
         <v>4</v>
       </c>
-      <c r="H42" s="5">
-        <v>0.216</v>
+      <c r="H42" s="159">
+        <v>0.309</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="17" thickBot="1">
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="8">
-        <v>0.23305600000000001</v>
-      </c>
-      <c r="E43" s="8">
-        <v>4.2208000000000002E-2</v>
-      </c>
-      <c r="F43" s="8">
-        <v>5.52</v>
-      </c>
-      <c r="G43" s="9">
+        <v>65</v>
+      </c>
+      <c r="D43" s="162">
+        <v>0.22525200000000001</v>
+      </c>
+      <c r="E43" s="162">
+        <v>4.3887000000000002E-2</v>
+      </c>
+      <c r="F43" s="162">
+        <v>5.13</v>
+      </c>
+      <c r="G43" s="161">
         <v>4</v>
       </c>
-      <c r="H43" s="10">
-        <v>3.3600000000000003E-8</v>
+      <c r="H43" s="13">
+        <v>2.8599999999999999E-7</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H44" s="19"/>
     </row>
     <row r="45" spans="2:9">
       <c r="C45" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" s="1">
         <v>-5.97</v>
@@ -1975,7 +3218,7 @@
     </row>
     <row r="46" spans="2:9">
       <c r="C46" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D46" s="1">
         <v>1.6830000000000001</v>
@@ -1996,7 +3239,7 @@
     <row r="47" spans="2:9" ht="17" thickBot="1">
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D47" s="8">
         <v>1.69</v>
@@ -2014,92 +3257,92 @@
         <v>4.4599999999999999E-9</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
+      <c r="B48" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="23"/>
-      <c r="C49" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="24">
+      <c r="B49" s="22"/>
+      <c r="C49" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="23">
         <v>-5.8994999999999997</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="23">
         <v>0.97677000000000003</v>
       </c>
-      <c r="F49" s="24">
+      <c r="F49" s="23">
         <v>-6.04</v>
       </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="25">
+      <c r="G49" s="22"/>
+      <c r="H49" s="24">
         <v>1.5400000000000001E-9</v>
       </c>
-      <c r="I49" s="22" t="s">
-        <v>15</v>
+      <c r="I49" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="23"/>
-      <c r="C50" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="24">
+      <c r="B50" s="22"/>
+      <c r="C50" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="23">
         <v>2.3560000000000001E-2</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="23">
         <v>1.09961</v>
       </c>
-      <c r="F50" s="24">
+      <c r="F50" s="23">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G50" s="26">
+      <c r="G50" s="25">
         <v>1</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50" s="22">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I50" s="23"/>
+      <c r="I50" s="22"/>
     </row>
     <row r="51" spans="2:9" ht="17" thickBot="1">
-      <c r="B51" s="27"/>
-      <c r="C51" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="28">
+      <c r="B51" s="26"/>
+      <c r="C51" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="27">
         <v>1.6894899999999999</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E51" s="27">
         <v>0.28800999999999999</v>
       </c>
-      <c r="F51" s="28">
+      <c r="F51" s="27">
         <v>5.8659999999999997</v>
       </c>
-      <c r="G51" s="27">
+      <c r="G51" s="26">
         <v>1</v>
       </c>
-      <c r="H51" s="29">
+      <c r="H51" s="28">
         <v>4.4599999999999999E-9</v>
       </c>
-      <c r="I51" s="27" t="s">
-        <v>15</v>
+      <c r="I51" s="26" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2107,7 +3350,7 @@
     </row>
     <row r="53" spans="2:9">
       <c r="C53" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" s="1">
         <v>-4.5758000000000001</v>
@@ -2122,12 +3365,12 @@
         <v>1.2300000000000001E-5</v>
       </c>
       <c r="I53" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="C54" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D54" s="1">
         <v>-33.822000000000003</v>
@@ -2145,13 +3388,13 @@
         <v>1.3908999999999999E-2</v>
       </c>
       <c r="I54" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="17" thickBot="1">
       <c r="B55" s="7"/>
       <c r="C55" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D55" s="8">
         <v>1.8969</v>
@@ -2169,94 +3412,94 @@
         <v>1.36E-7</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
+      <c r="B56" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
     </row>
     <row r="57" spans="2:9">
-      <c r="B57" s="23"/>
-      <c r="C57" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="24">
+      <c r="B57" s="22"/>
+      <c r="C57" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="23">
         <v>-5.9625000000000004</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="23">
         <v>1.0831999999999999</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="23">
         <v>-5.5049999999999999</v>
       </c>
-      <c r="G57" s="23"/>
-      <c r="H57" s="25">
+      <c r="G57" s="22"/>
+      <c r="H57" s="24">
         <v>3.7E-8</v>
       </c>
-      <c r="I57" s="23" t="s">
-        <v>15</v>
+      <c r="I57" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="2:9">
-      <c r="B58" s="23"/>
-      <c r="C58" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="24">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="23">
         <v>-4.9042000000000003</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E58" s="23">
         <v>1.9523999999999999</v>
       </c>
-      <c r="F58" s="24">
+      <c r="F58" s="23">
         <v>-2.46</v>
       </c>
-      <c r="G58" s="26">
+      <c r="G58" s="25">
         <v>1</v>
       </c>
-      <c r="H58" s="30">
+      <c r="H58" s="29">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="I58" s="23" t="s">
-        <v>24</v>
+      <c r="I58" s="22" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="17" thickBot="1">
-      <c r="B59" s="27"/>
-      <c r="C59" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="28">
+      <c r="B59" s="26"/>
+      <c r="C59" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="27">
         <v>1.8969</v>
       </c>
-      <c r="E59" s="28">
+      <c r="E59" s="27">
         <v>0.3599</v>
       </c>
-      <c r="F59" s="28">
+      <c r="F59" s="27">
         <v>5.27</v>
       </c>
-      <c r="G59" s="27">
+      <c r="G59" s="26">
         <v>1</v>
       </c>
-      <c r="H59" s="29">
+      <c r="H59" s="28">
         <v>1.36E-7</v>
       </c>
-      <c r="I59" s="27" t="s">
-        <v>15</v>
+      <c r="I59" s="26" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="18" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="1"/>
@@ -2266,7 +3509,7 @@
     <row r="61" spans="2:9">
       <c r="B61" s="14"/>
       <c r="C61" s="14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" s="1">
         <v>-2.1555</v>
@@ -2284,7 +3527,7 @@
     <row r="62" spans="2:9">
       <c r="B62" s="14"/>
       <c r="C62" s="14" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D62" s="1">
         <v>-81.346800000000002</v>
@@ -2302,13 +3545,13 @@
         <v>6.9500000000000006E-2</v>
       </c>
       <c r="I62" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="17" thickBot="1">
       <c r="B63" s="15"/>
       <c r="C63" s="15" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D63" s="8">
         <v>1.7739</v>
@@ -2326,230 +3569,1604 @@
         <v>5.0099999999999999E-9</v>
       </c>
       <c r="I63" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="31"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="22"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="31"/>
+      <c r="C65" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="23">
+        <v>-5.4907000000000004</v>
+      </c>
+      <c r="E65" s="23">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="F65" s="23">
+        <v>-5.8869999999999996</v>
+      </c>
+      <c r="G65" s="22"/>
+      <c r="H65" s="24">
+        <v>3.9199999999999997E-9</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="31"/>
+      <c r="C66" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="23">
+        <v>-6.9145000000000003</v>
+      </c>
+      <c r="E66" s="23">
+        <v>3.8098000000000001</v>
+      </c>
+      <c r="F66" s="23">
+        <v>-1.8149999999999999</v>
+      </c>
+      <c r="G66" s="25">
+        <v>1</v>
+      </c>
+      <c r="H66" s="23">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="I66" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="17" thickBot="1">
+      <c r="B67" s="32"/>
+      <c r="C67" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="27">
+        <v>1.7739</v>
+      </c>
+      <c r="E67" s="27">
+        <v>0.3034</v>
+      </c>
+      <c r="F67" s="27">
+        <v>5.8470000000000004</v>
+      </c>
+      <c r="G67" s="26">
+        <v>1</v>
+      </c>
+      <c r="H67" s="28">
+        <v>5.0099999999999999E-9</v>
+      </c>
+      <c r="I67" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="17" thickBot="1"/>
+    <row r="70" spans="2:9" ht="17" thickBot="1">
+      <c r="B70" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="43" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C64" s="32"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="23"/>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="32"/>
-      <c r="C65" s="32" t="s">
+      <c r="F70" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="I70" s="42"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="159">
+        <v>-3.074039</v>
+      </c>
+      <c r="E72" s="159">
+        <v>2.7491000000000002E-2</v>
+      </c>
+      <c r="F72" s="159">
+        <v>-111.82</v>
+      </c>
+      <c r="G72" s="159"/>
+      <c r="H72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="159">
+        <v>1.6737999999999999E-2</v>
+      </c>
+      <c r="E73" s="159">
+        <v>3.7922999999999998E-2</v>
+      </c>
+      <c r="F73" s="159">
+        <v>0.44</v>
+      </c>
+      <c r="G73" s="160">
+        <v>2</v>
+      </c>
+      <c r="H73" s="159">
+        <v>0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="C74" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="24">
+      <c r="D74" s="159">
+        <v>6.9629999999999996E-3</v>
+      </c>
+      <c r="E74" s="159">
+        <v>3.7581000000000003E-2</v>
+      </c>
+      <c r="F74" s="159">
+        <v>0.19</v>
+      </c>
+      <c r="G74" s="160">
+        <v>2</v>
+      </c>
+      <c r="H74" s="159">
+        <v>0.85299999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="C75" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75" s="159">
+        <v>-4.3858000000000001E-2</v>
+      </c>
+      <c r="E75" s="159">
+        <v>3.6143000000000002E-2</v>
+      </c>
+      <c r="F75" s="159">
+        <v>-1.21</v>
+      </c>
+      <c r="G75" s="160">
+        <v>2</v>
+      </c>
+      <c r="H75" s="159">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="C76" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" s="159">
+        <v>-2.3910000000000001E-2</v>
+      </c>
+      <c r="E76" s="159">
+        <v>3.2069E-2</v>
+      </c>
+      <c r="F76" s="159">
+        <v>-0.75</v>
+      </c>
+      <c r="G76" s="160">
+        <v>2</v>
+      </c>
+      <c r="H76" s="159">
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="C77" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77" s="159">
+        <v>0.27043800000000001</v>
+      </c>
+      <c r="E77" s="159">
+        <v>4.7565000000000003E-2</v>
+      </c>
+      <c r="F77" s="159">
+        <v>5.69</v>
+      </c>
+      <c r="G77" s="160">
+        <v>4</v>
+      </c>
+      <c r="H77" s="11">
+        <v>1.3000000000000001E-8</v>
+      </c>
+      <c r="I77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" s="159">
+        <v>0.73424699999999998</v>
+      </c>
+      <c r="E78" s="159">
+        <v>4.7005999999999999E-2</v>
+      </c>
+      <c r="F78" s="159">
+        <v>15.62</v>
+      </c>
+      <c r="G78" s="160">
+        <v>4</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="C79" t="s">
+        <v>64</v>
+      </c>
+      <c r="D79" s="159">
+        <v>4.5085E-2</v>
+      </c>
+      <c r="E79" s="159">
+        <v>4.4363E-2</v>
+      </c>
+      <c r="F79" s="159">
+        <v>1.02</v>
+      </c>
+      <c r="G79" s="160">
+        <v>4</v>
+      </c>
+      <c r="H79" s="159">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="17" thickBot="1">
+      <c r="B80" s="7"/>
+      <c r="C80" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D80" s="162">
+        <v>0.22525200000000001</v>
+      </c>
+      <c r="E80" s="162">
+        <v>4.3887000000000002E-2</v>
+      </c>
+      <c r="F80" s="162">
+        <v>5.13</v>
+      </c>
+      <c r="G80" s="161">
+        <v>4</v>
+      </c>
+      <c r="H80" s="13">
+        <v>2.8599999999999999E-7</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="19"/>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1">
+        <v>-5.97</v>
+      </c>
+      <c r="E82" s="1">
+        <v>3.7829999999999999</v>
+      </c>
+      <c r="F82" s="1">
+        <v>-1.5780000000000001</v>
+      </c>
+      <c r="H82">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="C83" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1.6830000000000001</v>
+      </c>
+      <c r="E83" s="1">
+        <v>78.543999999999997</v>
+      </c>
+      <c r="F83" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" ht="17" thickBot="1">
+      <c r="B84" s="7"/>
+      <c r="C84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="8">
+        <v>1.69</v>
+      </c>
+      <c r="E84" s="8">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F84" s="8">
+        <v>5.8659999999999997</v>
+      </c>
+      <c r="G84" s="7">
+        <v>1</v>
+      </c>
+      <c r="H84" s="13">
+        <v>4.4599999999999999E-9</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1">
+        <v>-4.5758000000000001</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1.1914</v>
+      </c>
+      <c r="F86" s="1">
+        <v>-3.8410000000000002</v>
+      </c>
+      <c r="H86" s="11">
+        <v>1.2300000000000001E-5</v>
+      </c>
+      <c r="I86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="C87" t="s">
+        <v>71</v>
+      </c>
+      <c r="D87" s="1">
+        <v>-33.822000000000003</v>
+      </c>
+      <c r="E87" s="1">
+        <v>13.750999999999999</v>
+      </c>
+      <c r="F87" s="1">
+        <v>-2.46</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" s="12">
+        <v>1.3908999999999999E-2</v>
+      </c>
+      <c r="I87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="17" thickBot="1">
+      <c r="B88" s="7"/>
+      <c r="C88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="8">
+        <v>1.8969</v>
+      </c>
+      <c r="E88" s="8">
+        <v>0.3599</v>
+      </c>
+      <c r="F88" s="8">
+        <v>5.27</v>
+      </c>
+      <c r="G88" s="7">
+        <v>1</v>
+      </c>
+      <c r="H88" s="13">
+        <v>1.36E-7</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="14"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="2:9">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1">
+        <v>-2.1555</v>
+      </c>
+      <c r="E90" s="1">
+        <v>2.1882999999999999</v>
+      </c>
+      <c r="F90" s="1">
+        <v>-0.98499999999999999</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0.3246</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="B91" s="14"/>
+      <c r="C91" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D91" s="1">
+        <v>-81.346800000000002</v>
+      </c>
+      <c r="E91" s="1">
+        <v>44.821399999999997</v>
+      </c>
+      <c r="F91" s="1">
+        <v>-1.8149999999999999</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91" s="1">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="17" thickBot="1">
+      <c r="B92" s="15"/>
+      <c r="C92" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="8">
+        <v>1.7739</v>
+      </c>
+      <c r="E92" s="8">
+        <v>0.3034</v>
+      </c>
+      <c r="F92" s="8">
+        <v>5.8470000000000004</v>
+      </c>
+      <c r="G92" s="7">
+        <v>1</v>
+      </c>
+      <c r="H92" s="13">
+        <v>5.0099999999999999E-9</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" ht="5" customHeight="1">
+      <c r="B93" s="164"/>
+      <c r="C93" s="164"/>
+      <c r="D93" s="164"/>
+      <c r="E93" s="164"/>
+      <c r="F93" s="164"/>
+      <c r="G93" s="164"/>
+      <c r="H93" s="164"/>
+      <c r="I93" s="164"/>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="B94" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" s="22"/>
+      <c r="C95" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="23">
+        <v>-5.8994999999999997</v>
+      </c>
+      <c r="E95" s="23">
+        <v>0.97677000000000003</v>
+      </c>
+      <c r="F95" s="23">
+        <v>-6.04</v>
+      </c>
+      <c r="G95" s="22"/>
+      <c r="H95" s="24">
+        <v>1.5400000000000001E-9</v>
+      </c>
+      <c r="I95" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="22"/>
+      <c r="C96" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D96" s="23">
+        <v>2.3560000000000001E-2</v>
+      </c>
+      <c r="E96" s="23">
+        <v>1.09961</v>
+      </c>
+      <c r="F96" s="23">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G96" s="25">
+        <v>1</v>
+      </c>
+      <c r="H96" s="22">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="I96" s="22"/>
+    </row>
+    <row r="97" spans="2:9" ht="17" thickBot="1">
+      <c r="B97" s="26"/>
+      <c r="C97" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="27">
+        <v>1.6894899999999999</v>
+      </c>
+      <c r="E97" s="27">
+        <v>0.28800999999999999</v>
+      </c>
+      <c r="F97" s="27">
+        <v>5.8659999999999997</v>
+      </c>
+      <c r="G97" s="26">
+        <v>1</v>
+      </c>
+      <c r="H97" s="28">
+        <v>4.4599999999999999E-9</v>
+      </c>
+      <c r="I97" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="22"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="B99" s="22"/>
+      <c r="C99" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="23">
+        <v>-5.9625000000000004</v>
+      </c>
+      <c r="E99" s="23">
+        <v>1.0831999999999999</v>
+      </c>
+      <c r="F99" s="23">
+        <v>-5.5049999999999999</v>
+      </c>
+      <c r="G99" s="22"/>
+      <c r="H99" s="24">
+        <v>3.7E-8</v>
+      </c>
+      <c r="I99" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="B100" s="22"/>
+      <c r="C100" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D100" s="23">
+        <v>-4.9042000000000003</v>
+      </c>
+      <c r="E100" s="23">
+        <v>1.9523999999999999</v>
+      </c>
+      <c r="F100" s="23">
+        <v>-2.46</v>
+      </c>
+      <c r="G100" s="25">
+        <v>1</v>
+      </c>
+      <c r="H100" s="29">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="I100" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="17" thickBot="1">
+      <c r="B101" s="26"/>
+      <c r="C101" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="27">
+        <v>1.8969</v>
+      </c>
+      <c r="E101" s="27">
+        <v>0.3599</v>
+      </c>
+      <c r="F101" s="27">
+        <v>5.27</v>
+      </c>
+      <c r="G101" s="26">
+        <v>1</v>
+      </c>
+      <c r="H101" s="28">
+        <v>1.36E-7</v>
+      </c>
+      <c r="I101" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9">
+      <c r="B102" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" s="31"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="22"/>
+    </row>
+    <row r="103" spans="2:9">
+      <c r="B103" s="31"/>
+      <c r="C103" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="23">
         <v>-5.4907000000000004</v>
       </c>
-      <c r="E65" s="24">
+      <c r="E103" s="23">
         <v>0.93259999999999998</v>
       </c>
-      <c r="F65" s="24">
+      <c r="F103" s="23">
         <v>-5.8869999999999996</v>
       </c>
-      <c r="G65" s="23"/>
-      <c r="H65" s="25">
+      <c r="G103" s="22"/>
+      <c r="H103" s="24">
         <v>3.9199999999999997E-9</v>
       </c>
-      <c r="I65" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="32"/>
-      <c r="C66" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" s="24">
+      <c r="I103" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9">
+      <c r="B104" s="31"/>
+      <c r="C104" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" s="23">
         <v>-6.9145000000000003</v>
       </c>
-      <c r="E66" s="24">
+      <c r="E104" s="23">
         <v>3.8098000000000001</v>
       </c>
-      <c r="F66" s="24">
+      <c r="F104" s="23">
         <v>-1.8149999999999999</v>
       </c>
-      <c r="G66" s="26">
+      <c r="G104" s="25">
         <v>1</v>
       </c>
-      <c r="H66" s="24">
+      <c r="H104" s="23">
         <v>6.9500000000000006E-2</v>
       </c>
-      <c r="I66" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="17" thickBot="1">
-      <c r="B67" s="33"/>
-      <c r="C67" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="28">
+      <c r="I104" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="17" thickBot="1">
+      <c r="B105" s="32"/>
+      <c r="C105" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="27">
         <v>1.7739</v>
       </c>
-      <c r="E67" s="28">
+      <c r="E105" s="27">
         <v>0.3034</v>
       </c>
-      <c r="F67" s="28">
+      <c r="F105" s="27">
         <v>5.8470000000000004</v>
       </c>
-      <c r="G67" s="27">
+      <c r="G105" s="26">
         <v>1</v>
       </c>
-      <c r="H67" s="29">
+      <c r="H105" s="28">
         <v>5.0099999999999999E-9</v>
       </c>
-      <c r="I67" s="34" t="s">
-        <v>15</v>
+      <c r="I105" s="33" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B32:I32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B92F878-8953-874E-B46E-F11B1509404B}">
+  <dimension ref="B2:H36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="17" thickBot="1"/>
+    <row r="3" spans="2:8" ht="17" thickBot="1">
+      <c r="B3" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="115"/>
+    </row>
+    <row r="4" spans="2:8" ht="17" thickBot="1">
+      <c r="B4" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="88"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-1.5800000000000002E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5">
+        <v>-0.41599999999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.90880000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-6.0200000000000002E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6">
+        <v>-0.16</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.9859</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="17" thickBot="1">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9.7699999999999992E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.96140000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="17" thickBot="1">
+      <c r="B8" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="115"/>
+    </row>
+    <row r="9" spans="2:8" ht="17" thickBot="1">
+      <c r="B9" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="88"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-0.28577000000000002</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10">
+        <v>-6.8520000000000003</v>
+      </c>
+      <c r="G10" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-0.73980000000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11">
+        <v>-17.956</v>
+      </c>
+      <c r="G11" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="17" thickBot="1">
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-0.45402999999999999</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12">
+        <v>-12.311</v>
+      </c>
+      <c r="G12" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="17" thickBot="1">
+      <c r="B13" s="113" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="115"/>
+    </row>
+    <row r="14" spans="2:8" ht="17" thickBot="1">
+      <c r="B14" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="88"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-6.2780000000000002E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15">
+        <v>-1.649</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.2253</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-0.23316999999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16">
+        <v>-6.2</v>
+      </c>
+      <c r="G16" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="17" thickBot="1">
+      <c r="B17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="8">
+        <v>-0.1704</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="E17" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="7">
+        <v>-4.633</v>
+      </c>
+      <c r="G17" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="17" thickBot="1"/>
+    <row r="21" spans="2:8" ht="17" thickBot="1">
+      <c r="B21" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="115"/>
+    </row>
+    <row r="22" spans="2:8" ht="17" thickBot="1">
+      <c r="B22" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="88"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6.0299999999999998E-3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23">
+        <v>0.16</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.9859</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-9.7699999999999992E-3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24">
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.96150000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="17" thickBot="1">
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-1.5800000000000002E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25">
+        <v>-0.41599999999999998</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.90880000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="17" thickBot="1">
+      <c r="B26" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="115"/>
+    </row>
+    <row r="27" spans="2:8" ht="17" thickBot="1">
+      <c r="B27" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="88"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.73980000000000001</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28">
+        <v>17.956</v>
+      </c>
+      <c r="G28" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.45402999999999999</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29">
+        <v>12.31</v>
+      </c>
+      <c r="G29" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="17" thickBot="1">
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-0.28577000000000002</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-0.28577000000000002</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30">
+        <v>-6.8520000000000003</v>
+      </c>
+      <c r="G30" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="17" thickBot="1">
+      <c r="B31" s="113" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="115"/>
+    </row>
+    <row r="32" spans="2:8" ht="17" thickBot="1">
+      <c r="B32" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="88"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.23316999999999999</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33">
+        <v>6.2</v>
+      </c>
+      <c r="G33" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.17039000000000001</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34">
+        <v>4.633</v>
+      </c>
+      <c r="G34" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="17" thickBot="1">
+      <c r="B35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="8">
+        <v>-6.2780000000000002E-2</v>
+      </c>
+      <c r="D35" s="8">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="E35" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="7">
+        <v>-1.649</v>
+      </c>
+      <c r="G35" s="93">
+        <v>0.2253</v>
+      </c>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B26:H26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930D1074-1A74-E547-BBFB-8A77C2B1659D}">
-  <dimension ref="B3:F13"/>
+  <dimension ref="B3:L45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="17" thickBot="1">
-      <c r="B3" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+    <row r="3" spans="2:12" ht="17" thickBot="1">
+      <c r="B3" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4" s="17" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="35">
+        <v>23</v>
+      </c>
+      <c r="D4" s="34">
         <v>0.04</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="34">
         <v>0.15</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="34">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="H4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="17" thickBot="1">
       <c r="B5" s="17"/>
       <c r="C5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="35">
+        <v>24</v>
+      </c>
+      <c r="D5" s="34">
         <v>0.04</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="34">
         <v>0.17</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="34">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="17" thickBot="1">
+      <c r="H5" s="7"/>
+      <c r="I5" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="17" thickBot="1">
       <c r="B6" s="20"/>
-      <c r="C6" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="37">
+      <c r="C6" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="36">
         <v>0.9</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="36">
         <v>1.63</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="36">
         <v>2.5099999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="H6" s="37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" s="17" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="35">
+        <v>69</v>
+      </c>
+      <c r="D7" s="34">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="34">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="34">
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="17" thickBot="1">
+    <row r="8" spans="2:12" ht="17" thickBot="1">
       <c r="B8" s="7"/>
-      <c r="C8" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="82">
+      <c r="C8" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="56">
         <v>1.181</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="56">
         <v>0.44600000000000001</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="56">
         <v>0.192</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
+    <row r="9" spans="2:12">
+      <c r="B9" s="37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
       <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="39">
+        <v>32</v>
+      </c>
+      <c r="D11" s="38">
         <v>0.83799999999999997</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="38">
         <v>0.44600000000000001</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="38">
         <v>0.192</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:12">
       <c r="C12" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>1.181</v>
@@ -2561,7 +5178,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:12">
       <c r="D13">
         <f>1/D11</f>
         <v>1.1933174224343677</v>
@@ -2575,16 +5192,483 @@
         <v>5.208333333333333</v>
       </c>
     </row>
+    <row r="15" spans="2:12" ht="17" thickBot="1"/>
+    <row r="16" spans="2:12" ht="17" thickBot="1">
+      <c r="B16" s="233" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="242"/>
+    </row>
+    <row r="17" spans="2:7" ht="17" thickBot="1">
+      <c r="B17" s="234" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="243" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="235" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="240">
+        <v>5.0912899999999997E-2</v>
+      </c>
+      <c r="E18" s="240">
+        <v>7.3105160000000002E-2</v>
+      </c>
+      <c r="F18" s="245">
+        <v>6.3386410000000004E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="238"/>
+      <c r="C19" s="236" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="237">
+        <v>5.3414650000000001E-2</v>
+      </c>
+      <c r="E19" s="237">
+        <v>7.2896870000000002E-2</v>
+      </c>
+      <c r="F19" s="244">
+        <v>6.3187080000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="238"/>
+      <c r="C20" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="240">
+        <v>5.3414650000000001E-2</v>
+      </c>
+      <c r="E20" s="240">
+        <v>7.2896870000000002E-2</v>
+      </c>
+      <c r="F20" s="245">
+        <v>6.3187080000000007E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="238"/>
+      <c r="C21" s="236" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="237">
+        <v>2.8450073999999998E-3</v>
+      </c>
+      <c r="E21" s="237">
+        <v>5.2858647000000002E-3</v>
+      </c>
+      <c r="F21" s="244">
+        <v>3.9767301E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="238"/>
+      <c r="C22" s="239" t="s">
+        <v>229</v>
+      </c>
+      <c r="D22" s="240">
+        <v>5.3338610000000002E-2</v>
+      </c>
+      <c r="E22" s="240">
+        <v>7.2703950000000003E-2</v>
+      </c>
+      <c r="F22" s="245">
+        <v>6.3061320000000004E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="241"/>
+      <c r="C23" s="236" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="237">
+        <v>2.661558E-2</v>
+      </c>
+      <c r="E23" s="237">
+        <v>3.890354E-2</v>
+      </c>
+      <c r="F23" s="244">
+        <v>3.3435470000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="17" thickBot="1">
+      <c r="B24" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="229">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E24" s="229">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F24" s="246">
+        <v>4.6199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="17" thickBot="1">
+      <c r="B25" s="169" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="231">
+        <v>46</v>
+      </c>
+      <c r="E25" s="231">
+        <v>51</v>
+      </c>
+      <c r="F25" s="247">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="17" thickBot="1">
+      <c r="B26" s="233" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="114"/>
+      <c r="D26" s="230"/>
+      <c r="E26" s="230"/>
+      <c r="F26" s="248"/>
+    </row>
+    <row r="27" spans="2:7" ht="17" thickBot="1">
+      <c r="B27" s="234" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="243" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="235" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="239" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="240">
+        <v>3.2535090000000003E-2</v>
+      </c>
+      <c r="E28" s="240">
+        <v>0.26451003000000001</v>
+      </c>
+      <c r="F28" s="245">
+        <v>0.26597706999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="238"/>
+      <c r="C29" s="236" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="237">
+        <v>3.0250800000000001E-2</v>
+      </c>
+      <c r="E29" s="237">
+        <v>0.41415729000000001</v>
+      </c>
+      <c r="F29" s="244">
+        <v>0.32466658999999998</v>
+      </c>
+      <c r="G29" s="228"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="238"/>
+      <c r="C30" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="240">
+        <v>3.0250800000000001E-2</v>
+      </c>
+      <c r="E30" s="240">
+        <v>0.34537245</v>
+      </c>
+      <c r="F30" s="245">
+        <v>0.30228899999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="238"/>
+      <c r="C31" s="236" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="237">
+        <v>9.1427429999999996E-4</v>
+      </c>
+      <c r="E31" s="237">
+        <v>0.1464126496</v>
+      </c>
+      <c r="F31" s="244">
+        <v>9.5356972200000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="238"/>
+      <c r="C32" s="239" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" s="240">
+        <v>3.0236969999999998E-2</v>
+      </c>
+      <c r="E32" s="240">
+        <v>0.32645091999999998</v>
+      </c>
+      <c r="F32" s="245">
+        <v>0.28935741999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="241"/>
+      <c r="C33" s="236" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="237">
+        <v>1.6276499999999999E-2</v>
+      </c>
+      <c r="E33" s="237">
+        <v>0.1917585</v>
+      </c>
+      <c r="F33" s="244">
+        <v>0.172289</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="17" thickBot="1">
+      <c r="B34" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="94">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="E34" s="94">
+        <v>6.93E-2</v>
+      </c>
+      <c r="F34" s="249">
+        <v>9.5299999999999996E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="17" thickBot="1">
+      <c r="B35" s="169" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="231">
+        <v>32</v>
+      </c>
+      <c r="E35" s="231">
+        <v>50</v>
+      </c>
+      <c r="F35" s="247">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="17" thickBot="1">
+      <c r="B36" s="233" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="114"/>
+      <c r="D36" s="230"/>
+      <c r="E36" s="230"/>
+      <c r="F36" s="248"/>
+    </row>
+    <row r="37" spans="2:6" ht="17" thickBot="1">
+      <c r="B37" s="234" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="243" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="235" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="239" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="240">
+        <v>5.9173539999999997E-2</v>
+      </c>
+      <c r="E38" s="240">
+        <v>0.12567798999999999</v>
+      </c>
+      <c r="F38" s="245">
+        <v>0.18708483000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="238"/>
+      <c r="C39" s="236" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="237">
+        <v>7.1008539999999995E-2</v>
+      </c>
+      <c r="E39" s="237">
+        <v>0.15269055000000001</v>
+      </c>
+      <c r="F39" s="244">
+        <v>0.26056457999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="238"/>
+      <c r="C40" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" s="240">
+        <v>7.100853E-2</v>
+      </c>
+      <c r="E40" s="240">
+        <v>0.14085871</v>
+      </c>
+      <c r="F40" s="245">
+        <v>0.22625635999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="238"/>
+      <c r="C41" s="236" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" s="237">
+        <v>5.0169157999999997E-3</v>
+      </c>
+      <c r="E41" s="237">
+        <v>2.27832273E-2</v>
+      </c>
+      <c r="F41" s="244">
+        <v>6.35773855E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="238"/>
+      <c r="C42" s="239" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" s="240">
+        <v>7.0830190000000001E-2</v>
+      </c>
+      <c r="E42" s="240">
+        <v>0.13948177</v>
+      </c>
+      <c r="F42" s="245">
+        <v>0.22067837000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="241"/>
+      <c r="C43" s="236" t="s">
+        <v>227</v>
+      </c>
+      <c r="D43" s="237">
+        <v>3.2058139999999999E-2</v>
+      </c>
+      <c r="E43" s="237">
+        <v>7.4280959999999993E-2</v>
+      </c>
+      <c r="F43" s="244">
+        <v>0.12140402</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="17" thickBot="1">
+      <c r="B44" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="94">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="E44" s="94">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="F44" s="249">
+        <v>5.7799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="17" thickBot="1">
+      <c r="B45" s="169" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="231">
+        <v>46</v>
+      </c>
+      <c r="E45" s="232">
+        <v>50</v>
+      </c>
+      <c r="F45" s="247">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B28:B33"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FA0919-023E-0748-8817-9142AFFB3DF4}">
   <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -2596,362 +5680,1985 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="117" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="E2" s="121"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="130" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="121"/>
+    </row>
+    <row r="4" spans="2:7" ht="17" thickBot="1">
+      <c r="B4" s="130"/>
+      <c r="C4" s="120"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="47">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="47">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="47">
         <v>53</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="E2" s="64"/>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="64"/>
-    </row>
-    <row r="4" spans="2:7" ht="17" thickBot="1">
-      <c r="B4" s="52"/>
-      <c r="C4" s="59"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="53">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="53">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="53">
-        <v>53</v>
-      </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="57">
+      <c r="B8" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="51">
         <f>SUM(C5:C7)</f>
         <v>155</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="17" thickBot="1"/>
     <row r="11" spans="2:7" ht="17" thickBot="1">
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="66" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
+    </row>
+    <row r="12" spans="2:7" ht="17" customHeight="1">
+      <c r="D12" s="126" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="128" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17" thickBot="1">
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="129"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="55">
+        <v>51</v>
+      </c>
+      <c r="E14" s="52">
+        <v>51</v>
+      </c>
+      <c r="F14" s="52">
         <v>53</v>
       </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
-    </row>
-    <row r="12" spans="2:7" ht="17" customHeight="1">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="17" thickBot="1">
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="81"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="76">
-        <v>51</v>
-      </c>
-      <c r="E14" s="63">
-        <v>51</v>
-      </c>
-      <c r="F14" s="63">
-        <v>53</v>
-      </c>
-      <c r="G14" s="65">
+      <c r="G14" s="53">
         <f>SUM(D14:F14)</f>
         <v>155</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B3:B4"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB4537B-0B5B-694E-BF78-26519239A8E0}">
-  <dimension ref="B1:K12"/>
+  <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="173" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="0.1640625" customWidth="1"/>
+    <col min="4" max="4" width="0.5" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="0.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1"/>
-    <row r="2" spans="2:11" ht="16" customHeight="1" thickBot="1">
-      <c r="C2" s="87" t="s">
+    <row r="2" spans="2:12" ht="16" customHeight="1"/>
+    <row r="4" spans="2:12" ht="20" customHeight="1"/>
+    <row r="8" spans="2:12" ht="16" customHeight="1" thickBot="1"/>
+    <row r="9" spans="2:12" ht="20" customHeight="1" thickBot="1">
+      <c r="B9" s="131" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="79"/>
+      <c r="E9" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="79"/>
+      <c r="G9" s="136" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="138"/>
+    </row>
+    <row r="10" spans="2:12" ht="17" customHeight="1" thickBot="1">
+      <c r="B10" s="132"/>
+      <c r="C10" s="139" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="72"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="123" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="125"/>
+    </row>
+    <row r="11" spans="2:12" ht="16" customHeight="1">
+      <c r="B11" s="132"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="145" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="17" thickBot="1">
+      <c r="B12" s="132"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="57">
+        <v>0</v>
+      </c>
+      <c r="H12" s="45">
+        <v>30</v>
+      </c>
+      <c r="I12" s="45">
+        <v>100</v>
+      </c>
+      <c r="J12" s="45">
+        <v>300</v>
+      </c>
+      <c r="K12" s="45">
+        <v>7000</v>
+      </c>
+      <c r="L12" s="146"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="71">
+        <v>46</v>
+      </c>
+      <c r="D13" s="75"/>
+      <c r="E13" s="86">
+        <v>1</v>
+      </c>
+      <c r="F13" s="75"/>
+      <c r="G13" s="58">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13" s="59">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="67">
+        <v>51</v>
+      </c>
+      <c r="D14" s="75"/>
+      <c r="E14" s="82">
+        <v>1</v>
+      </c>
+      <c r="F14" s="75"/>
+      <c r="G14" s="58">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="L14" s="60">
+        <f t="shared" ref="L14:L15" si="0">SUM(G14:K14)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="68">
         <v>53</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="94" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="20" customHeight="1" thickBot="1">
-      <c r="B4" s="77"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="95">
-        <v>0</v>
-      </c>
-      <c r="F4" s="48">
-        <v>30</v>
-      </c>
-      <c r="G4" s="48">
-        <v>100</v>
-      </c>
-      <c r="H4" s="48">
-        <v>300</v>
-      </c>
-      <c r="I4" s="48">
-        <v>7000</v>
-      </c>
-      <c r="J4" s="96"/>
-      <c r="K4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="90">
-        <v>51</v>
-      </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="97">
+      <c r="D15" s="76"/>
+      <c r="E15" s="83">
         <v>3</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F15" s="76"/>
+      <c r="G15" s="61">
+        <v>6</v>
+      </c>
+      <c r="H15" s="49">
+        <v>11</v>
+      </c>
+      <c r="I15" s="49">
         <v>12</v>
       </c>
-      <c r="G5" s="21">
-        <v>12</v>
-      </c>
-      <c r="H5" s="21">
+      <c r="J15" s="49">
         <v>11</v>
       </c>
-      <c r="I5" s="21">
-        <v>12</v>
-      </c>
-      <c r="J5" s="98">
-        <f>SUM(E5:I5)</f>
-        <v>50</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="91">
-        <v>51</v>
-      </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="97">
-        <v>4</v>
-      </c>
-      <c r="F6" s="21">
-        <v>11</v>
-      </c>
-      <c r="G6" s="21">
-        <v>12</v>
-      </c>
-      <c r="H6" s="21">
-        <v>11</v>
-      </c>
-      <c r="I6" s="21">
-        <v>12</v>
-      </c>
-      <c r="J6" s="99">
-        <f t="shared" ref="J6:J7" si="0">SUM(E6:I6)</f>
-        <v>50</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="92">
-        <v>53</v>
-      </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="100">
-        <v>6</v>
-      </c>
-      <c r="F7" s="55">
-        <v>11</v>
-      </c>
-      <c r="G7" s="55">
-        <v>12</v>
-      </c>
-      <c r="H7" s="55">
-        <v>11</v>
-      </c>
-      <c r="I7" s="55">
+      <c r="K15" s="49">
         <v>10</v>
       </c>
-      <c r="J7" s="101">
+      <c r="L15" s="62">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="17" thickBot="1">
-      <c r="B8" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="105">
-        <v>155</v>
-      </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="102">
-        <f>SUM(E5:E7)</f>
+    </row>
+    <row r="16" spans="2:12" ht="17" thickBot="1">
+      <c r="B16" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="66">
+        <f>SUM(C13:C15)</f>
+        <v>150</v>
+      </c>
+      <c r="D16" s="77"/>
+      <c r="E16" s="84">
+        <v>5</v>
+      </c>
+      <c r="F16" s="77"/>
+      <c r="G16" s="63">
+        <f>SUM(G13:G15)</f>
         <v>13</v>
       </c>
-      <c r="F8" s="103">
-        <f t="shared" ref="F8:J8" si="1">SUM(F5:F7)</f>
+      <c r="H16" s="64">
+        <f t="shared" ref="H16:L16" si="1">SUM(H13:H15)</f>
         <v>34</v>
       </c>
-      <c r="G8" s="103">
+      <c r="I16" s="64">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="H8" s="103">
+      <c r="J16" s="64">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="I8" s="20">
+      <c r="K16" s="20">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="J8" s="104">
+      <c r="L16" s="65">
         <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="17" thickBot="1"/>
+    <row r="19" spans="2:12" ht="17" thickBot="1">
+      <c r="B19" s="131" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="79"/>
+      <c r="E19" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="79"/>
+      <c r="G19" s="136" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="138"/>
+    </row>
+    <row r="20" spans="2:12" ht="17" thickBot="1">
+      <c r="B20" s="132"/>
+      <c r="C20" s="139" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="72"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="123" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="125"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="132"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="145" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="17" thickBot="1">
+      <c r="B22" s="132"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="57">
+        <v>0</v>
+      </c>
+      <c r="H22" s="45">
+        <v>30</v>
+      </c>
+      <c r="I22" s="45">
+        <v>100</v>
+      </c>
+      <c r="J22" s="45">
+        <v>300</v>
+      </c>
+      <c r="K22" s="45">
+        <v>7000</v>
+      </c>
+      <c r="L22" s="146"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="71">
+        <v>46</v>
+      </c>
+      <c r="D23" s="75"/>
+      <c r="E23" s="86">
+        <v>1</v>
+      </c>
+      <c r="F23" s="75"/>
+      <c r="G23" s="58">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>11</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>12</v>
+      </c>
+      <c r="L23" s="59">
+        <f>SUM(G23:K23)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="67">
+        <v>51</v>
+      </c>
+      <c r="D24" s="75"/>
+      <c r="E24" s="82">
+        <v>1</v>
+      </c>
+      <c r="F24" s="75"/>
+      <c r="G24" s="58">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>11</v>
+      </c>
+      <c r="I24">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>11</v>
+      </c>
+      <c r="K24">
+        <v>12</v>
+      </c>
+      <c r="L24" s="60">
+        <f>SUM(G24:K24)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="68">
+        <v>53</v>
+      </c>
+      <c r="D25" s="76"/>
+      <c r="E25" s="83">
+        <v>3</v>
+      </c>
+      <c r="F25" s="76"/>
+      <c r="G25" s="61">
+        <v>6</v>
+      </c>
+      <c r="H25" s="49">
+        <v>11</v>
+      </c>
+      <c r="I25" s="49">
+        <v>12</v>
+      </c>
+      <c r="J25" s="49">
+        <v>11</v>
+      </c>
+      <c r="K25" s="49">
+        <v>10</v>
+      </c>
+      <c r="L25" s="62">
+        <f>SUM(G25:K25)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="17" thickBot="1">
+      <c r="B26" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="66">
+        <f>SUM(C23:C25)</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="40"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="40"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="86"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="84">
+        <v>5</v>
+      </c>
+      <c r="F26" s="77"/>
+      <c r="G26" s="63">
+        <f>SUM(G23:G25)</f>
+        <v>11</v>
+      </c>
+      <c r="H26" s="64">
+        <f t="shared" ref="H26:L26" si="2">SUM(H23:H25)</f>
+        <v>33</v>
+      </c>
+      <c r="I26" s="64">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="J26" s="64">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="K26" s="20">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="L26" s="65">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="J3:J4"/>
+  <mergeCells count="14">
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E8:I8" formulaRange="1"/>
+    <ignoredError sqref="G16:K16 G26:K26" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5825DAF-5F9A-A341-82D6-10BBDADFFBA0}">
+  <dimension ref="B1:K46"/>
+  <sheetViews>
+    <sheetView topLeftCell="F4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11">
+      <c r="B1" s="149" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="151"/>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="100" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="51">
+      <c r="B3" s="58">
+        <v>2274</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>7000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="101" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="17">
+      <c r="B4" s="58">
+        <v>2514</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="101" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="51">
+      <c r="B5" s="58">
+        <v>2469</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>7000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="101" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="51">
+      <c r="B6" s="58">
+        <v>2520</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="101" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="51">
+      <c r="B7" s="58">
+        <v>2494</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="101" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="17">
+      <c r="B8" s="58">
+        <v>2505</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="101" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="17">
+      <c r="B9" s="58">
+        <v>2452</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="101" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="17">
+      <c r="B10" s="58">
+        <v>2562</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="101" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="17">
+      <c r="B11" s="58">
+        <v>2419</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="101" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="17">
+      <c r="B12" s="58">
+        <v>2434</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>300</v>
+      </c>
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="101" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="17" thickBot="1">
+      <c r="B13" s="102"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="104"/>
+    </row>
+    <row r="15" spans="2:11" ht="17" thickBot="1">
+      <c r="B15" s="157" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" s="165" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="51">
+      <c r="B17" s="58">
+        <v>2449</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>7000</v>
+      </c>
+      <c r="E17" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" s="112" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" s="166" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="51">
+      <c r="B18" s="58">
+        <v>2453</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>7000</v>
+      </c>
+      <c r="E18" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="J18" s="112" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="18" thickBot="1">
+      <c r="B19" s="102">
+        <v>2569</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="103" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="103"/>
+      <c r="G19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="J19" s="111" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="17" thickBot="1"/>
+    <row r="21" spans="2:11">
+      <c r="B21" s="149" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="151"/>
+    </row>
+    <row r="22" spans="2:11" ht="17" customHeight="1">
+      <c r="B22" s="154" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="152"/>
+      <c r="E22" s="155" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="155"/>
+      <c r="H22" s="152" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="153"/>
+    </row>
+    <row r="23" spans="2:11" ht="34">
+      <c r="B23" s="105" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="106" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="97">
+        <v>51</v>
+      </c>
+      <c r="E24" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="97">
+        <v>5</v>
+      </c>
+      <c r="H24" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="106">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="97">
+        <v>52</v>
+      </c>
+      <c r="E25" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="97">
+        <v>1</v>
+      </c>
+      <c r="H25" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="106">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="97">
+        <v>53</v>
+      </c>
+      <c r="E26" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="97">
+        <v>0</v>
+      </c>
+      <c r="H26" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="106">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="156" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="147"/>
+      <c r="E27" s="147" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="147"/>
+      <c r="H27" s="147" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="148"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="107">
+        <v>0</v>
+      </c>
+      <c r="C28" s="97">
+        <v>13</v>
+      </c>
+      <c r="E28" s="97">
+        <v>0</v>
+      </c>
+      <c r="F28" s="97">
+        <v>1</v>
+      </c>
+      <c r="H28" s="97">
+        <v>0</v>
+      </c>
+      <c r="I28" s="106">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="107">
+        <v>30</v>
+      </c>
+      <c r="C29" s="97">
+        <v>35</v>
+      </c>
+      <c r="E29" s="97">
+        <v>30</v>
+      </c>
+      <c r="F29" s="97">
+        <v>1</v>
+      </c>
+      <c r="H29" s="97">
+        <v>30</v>
+      </c>
+      <c r="I29" s="106">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="107">
+        <v>100</v>
+      </c>
+      <c r="C30" s="97">
+        <v>36</v>
+      </c>
+      <c r="E30" s="97">
+        <v>100</v>
+      </c>
+      <c r="F30" s="97">
+        <v>1</v>
+      </c>
+      <c r="H30" s="97">
+        <v>100</v>
+      </c>
+      <c r="I30" s="106">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="107">
+        <v>300</v>
+      </c>
+      <c r="C31" s="97">
+        <v>36</v>
+      </c>
+      <c r="E31" s="97">
+        <v>300</v>
+      </c>
+      <c r="F31" s="97">
+        <v>3</v>
+      </c>
+      <c r="H31" s="97">
+        <v>300</v>
+      </c>
+      <c r="I31" s="106">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="107">
+        <v>7000</v>
+      </c>
+      <c r="C32" s="97">
+        <v>36</v>
+      </c>
+      <c r="E32" s="97">
+        <v>7000</v>
+      </c>
+      <c r="F32" s="97">
+        <v>0</v>
+      </c>
+      <c r="H32" s="97">
+        <v>7000</v>
+      </c>
+      <c r="I32" s="106">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="97">
+        <f>SUM(C28:C32)</f>
+        <v>156</v>
+      </c>
+      <c r="E33" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="97">
+        <f>SUM(F28:F32)</f>
+        <v>6</v>
+      </c>
+      <c r="H33" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="I33" s="106">
+        <f>SUM(I28:I32)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="58"/>
+      <c r="I34" s="101"/>
+    </row>
+    <row r="35" spans="2:9" ht="19" customHeight="1">
+      <c r="B35" s="58"/>
+      <c r="E35" s="155" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="155"/>
+      <c r="H35" s="152" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="153"/>
+    </row>
+    <row r="36" spans="2:9" ht="17">
+      <c r="B36" s="58"/>
+      <c r="E36" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36" s="106" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="58"/>
+      <c r="E37" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="97">
+        <v>0</v>
+      </c>
+      <c r="H37" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="106">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="58"/>
+      <c r="E38" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="97">
+        <v>1</v>
+      </c>
+      <c r="H38" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="106">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="58"/>
+      <c r="E39" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="97">
+        <v>3</v>
+      </c>
+      <c r="H39" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="106">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="58"/>
+      <c r="E40" s="147" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="147"/>
+      <c r="H40" s="147" t="s">
+        <v>100</v>
+      </c>
+      <c r="I40" s="148"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="58"/>
+      <c r="E41" s="97">
+        <v>0</v>
+      </c>
+      <c r="F41" s="97">
+        <v>0</v>
+      </c>
+      <c r="H41" s="97">
+        <v>0</v>
+      </c>
+      <c r="I41" s="106">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="58"/>
+      <c r="E42" s="97">
+        <v>30</v>
+      </c>
+      <c r="F42" s="97">
+        <v>1</v>
+      </c>
+      <c r="H42" s="97">
+        <v>30</v>
+      </c>
+      <c r="I42" s="106">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="58"/>
+      <c r="E43" s="97">
+        <v>100</v>
+      </c>
+      <c r="F43" s="97">
+        <v>0</v>
+      </c>
+      <c r="H43" s="97">
+        <v>100</v>
+      </c>
+      <c r="I43" s="106">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="58"/>
+      <c r="E44" s="97">
+        <v>300</v>
+      </c>
+      <c r="F44" s="97">
+        <v>1</v>
+      </c>
+      <c r="H44" s="97">
+        <v>300</v>
+      </c>
+      <c r="I44" s="106">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="58"/>
+      <c r="E45" s="97">
+        <v>7000</v>
+      </c>
+      <c r="F45" s="97">
+        <v>2</v>
+      </c>
+      <c r="H45" s="97">
+        <v>7000</v>
+      </c>
+      <c r="I45" s="106">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="17" thickBot="1">
+      <c r="B46" s="102"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="108">
+        <f>SUM(F41:F45)</f>
+        <v>4</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="I46" s="109">
+        <f>SUM(I41:I45)</f>
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B15:J15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2703868A-3146-CD4D-92FF-10AE08C79280}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="B12:I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="6" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="47"/>
+      <c r="B1" s="183" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="183" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="183" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="183" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="183" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="183" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="183" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="183" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="51">
+      <c r="B2" s="170" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="191" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="219" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="192" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="192" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="193" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="193" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="192" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="51" customHeight="1">
+      <c r="B3" s="170"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="181" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="180"/>
+    </row>
+    <row r="4" spans="1:10" ht="51">
+      <c r="B4" s="170"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="180"/>
+      <c r="H4" s="181" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" s="180"/>
+      <c r="J4" s="167"/>
+    </row>
+    <row r="5" spans="1:10" ht="51" customHeight="1">
+      <c r="B5" s="170"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="221" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="224"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="181" t="s">
+        <v>161</v>
+      </c>
+      <c r="I5" s="180"/>
+      <c r="J5" s="167"/>
+    </row>
+    <row r="6" spans="1:10" ht="85" customHeight="1">
+      <c r="B6" s="171"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="222" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="224"/>
+      <c r="F6" s="182" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="180"/>
+      <c r="H6" s="181" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" s="180"/>
+      <c r="J6" s="167"/>
+    </row>
+    <row r="7" spans="1:10" ht="69" thickBot="1">
+      <c r="B7" s="200" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="201" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="225" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="227" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="206" t="s">
+        <v>230</v>
+      </c>
+      <c r="G7" s="203" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" s="204" t="s">
+        <v>197</v>
+      </c>
+      <c r="I7" s="202"/>
+      <c r="J7" s="167"/>
+    </row>
+    <row r="8" spans="1:10" ht="102" customHeight="1">
+      <c r="B8" s="172" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="180" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="194" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="184" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="180" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="181" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" s="181" t="s">
+        <v>184</v>
+      </c>
+      <c r="I8" s="181" t="s">
+        <v>169</v>
+      </c>
+      <c r="J8" s="167"/>
+    </row>
+    <row r="9" spans="1:10" ht="51">
+      <c r="B9" s="173"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="181" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9" s="181" t="s">
+        <v>185</v>
+      </c>
+      <c r="I9" s="181" t="s">
+        <v>170</v>
+      </c>
+      <c r="J9" s="167"/>
+    </row>
+    <row r="10" spans="1:10" ht="74" customHeight="1">
+      <c r="B10" s="173"/>
+      <c r="C10" s="213" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="221" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="214"/>
+      <c r="F10" s="180" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="181" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="181" t="s">
+        <v>222</v>
+      </c>
+      <c r="I10" s="181" t="s">
+        <v>171</v>
+      </c>
+      <c r="J10" s="167"/>
+    </row>
+    <row r="11" spans="1:10" ht="68">
+      <c r="B11" s="174"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="222" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="214"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="188" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="188" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" s="188" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="167"/>
+    </row>
+    <row r="12" spans="1:10" ht="69" thickBot="1">
+      <c r="B12" s="205" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="205" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="220" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="226" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="206" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="250" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12" s="208"/>
+      <c r="I12" s="209"/>
+      <c r="J12" s="167"/>
+    </row>
+    <row r="13" spans="1:10" ht="88" customHeight="1">
+      <c r="B13" s="176" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="192" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="215" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" s="196" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="193" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="190" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="193" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" s="193" t="s">
+        <v>209</v>
+      </c>
+      <c r="J13" s="167"/>
+    </row>
+    <row r="14" spans="1:10" ht="72" customHeight="1">
+      <c r="B14" s="177"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="217" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="214"/>
+      <c r="F14" s="180" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="186" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="96" t="s">
+        <v>207</v>
+      </c>
+      <c r="I14" s="180" t="s">
+        <v>210</v>
+      </c>
+      <c r="J14" s="167"/>
+    </row>
+    <row r="15" spans="1:10" ht="68" customHeight="1">
+      <c r="B15" s="177"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="218" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="214"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="184" t="s">
+        <v>190</v>
+      </c>
+      <c r="H15" s="180" t="s">
+        <v>208</v>
+      </c>
+      <c r="I15" s="180"/>
+      <c r="J15" s="167"/>
+    </row>
+    <row r="16" spans="1:10" ht="37" customHeight="1">
+      <c r="B16" s="178"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="189" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="214"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="167"/>
+    </row>
+    <row r="17" spans="2:10" ht="72" customHeight="1" thickBot="1">
+      <c r="B17" s="210" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="211" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="216" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="226" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="206" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="212" t="s">
+        <v>215</v>
+      </c>
+      <c r="H17" s="207"/>
+      <c r="I17" s="209"/>
+      <c r="J17" s="167"/>
+    </row>
+    <row r="18" spans="2:10" ht="96" customHeight="1">
+      <c r="B18" s="172" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="180" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="186" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" s="184" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="180" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="186" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="185" t="s">
+        <v>212</v>
+      </c>
+      <c r="I18" s="187" t="s">
+        <v>214</v>
+      </c>
+      <c r="J18" s="167"/>
+    </row>
+    <row r="19" spans="2:10" ht="68">
+      <c r="B19" s="173"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="182" t="s">
+        <v>223</v>
+      </c>
+      <c r="E19" s="184"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="186" t="s">
+        <v>190</v>
+      </c>
+      <c r="H19" s="180" t="s">
+        <v>211</v>
+      </c>
+      <c r="I19" s="180" t="s">
+        <v>213</v>
+      </c>
+      <c r="J19" s="167"/>
+    </row>
+    <row r="20" spans="2:10" ht="34">
+      <c r="B20" s="173"/>
+      <c r="C20" s="180"/>
+      <c r="D20" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" s="184"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="186" t="s">
+        <v>181</v>
+      </c>
+      <c r="H20" s="180"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="167"/>
+    </row>
+    <row r="21" spans="2:10" ht="69" thickBot="1">
+      <c r="B21" s="175"/>
+      <c r="C21" s="197"/>
+      <c r="D21" s="195" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21" s="198"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="199" t="s">
+        <v>191</v>
+      </c>
+      <c r="H21" s="197"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="167"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="J22" s="167"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="J23" s="167"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="J24" s="167"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="J25" s="167"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Statistics_Table.xlsx
+++ b/Statistics_Table.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesse/Documents/GitHub/EEID_1A_Mechanistic_Link/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEA64D5-94D4-2742-8D74-25A1A8D00D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AF524E-6D1E-9E42-9FF4-2906F4724591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38540" yWindow="660" windowWidth="38080" windowHeight="19380" activeTab="3" xr2:uid="{C9899760-A15E-1B43-8C41-8D3085971ED0}"/>
+    <workbookView xWindow="-37960" yWindow="-320" windowWidth="35180" windowHeight="21100" activeTab="3" xr2:uid="{C9899760-A15E-1B43-8C41-8D3085971ED0}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Results" sheetId="1" r:id="rId1"/>
     <sheet name="Primary Post-Hoc" sheetId="5" r:id="rId2"/>
     <sheet name="Variability" sheetId="2" r:id="rId3"/>
     <sheet name="Disease Response + Variability " sheetId="9" r:id="rId4"/>
-    <sheet name="Primary Challenge" sheetId="4" r:id="rId5"/>
-    <sheet name="Secondary Challenge" sheetId="3" r:id="rId6"/>
-    <sheet name="Bird Accounting" sheetId="6" r:id="rId7"/>
-    <sheet name="Removal Analysis" sheetId="8" r:id="rId8"/>
-    <sheet name="Variability Definition Table" sheetId="7" r:id="rId9"/>
+    <sheet name="Brown-Forsythe" sheetId="10" r:id="rId5"/>
+    <sheet name="Primary Challenge" sheetId="4" r:id="rId6"/>
+    <sheet name="Secondary Challenge" sheetId="3" r:id="rId7"/>
+    <sheet name="Bird Accounting" sheetId="6" r:id="rId8"/>
+    <sheet name="Removal Analysis" sheetId="8" r:id="rId9"/>
+    <sheet name="Variability Definition Table" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="248">
   <si>
     <t>Mean Estimate</t>
   </si>
@@ -375,9 +376,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Possibly not considered reinfected? I count 7 reinfected Low dose birds, but only see 6 in table 2.</t>
-  </si>
-  <si>
     <t>R eye score 1.5 DPSI 7, but no path load any DPSI</t>
   </si>
   <si>
@@ -432,9 +430,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>big effect on antibodies + susceptibility</t>
-  </si>
-  <si>
     <t>Variation Metric</t>
   </si>
   <si>
@@ -774,9 +769,6 @@
     <t>With Removal of uninfected individuals Secondary. No removal of uninfected individuals Primary.</t>
   </si>
   <si>
-    <t>Considered reinfected because eyescore was 0.5 and challenged with high dose of MG</t>
-  </si>
-  <si>
     <t>Conditional Model</t>
   </si>
   <si>
@@ -787,6 +779,48 @@
   </si>
   <si>
     <t>Max Log10 Pathogen Load</t>
+  </si>
+  <si>
+    <t>Without Removal of Uninfected Individuals Secondary; Comparing Max Log10 to Raw Pathogen Load Variability</t>
+  </si>
+  <si>
+    <t>p_adj</t>
+  </si>
+  <si>
+    <t>p_value</t>
+  </si>
+  <si>
+    <t>F_value</t>
+  </si>
+  <si>
+    <t>group2</t>
+  </si>
+  <si>
+    <t>group1</t>
+  </si>
+  <si>
+    <t>Max Total Eye Score</t>
+  </si>
+  <si>
+    <t>Max Quantity</t>
+  </si>
+  <si>
+    <t>Log10(Max Quantity)</t>
+  </si>
+  <si>
+    <t>Considered uninfected</t>
+  </si>
+  <si>
+    <t>not a big effect on anything to switch</t>
+  </si>
+  <si>
+    <t>Considered uninfected because below pathogen load cutoff</t>
+  </si>
+  <si>
+    <t>Considered infected because high eyescore even though no pathogen load</t>
+  </si>
+  <si>
+    <t>big effect on antibodies + susceptibility DPI 41</t>
   </si>
 </sst>
 </file>
@@ -1780,7 +1814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="330">
+  <cellXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2201,331 +2235,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2561,6 +2279,333 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2966,8 +3011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0744273B-71FE-304B-BAAA-08570BCE324B}">
   <dimension ref="A2:J93"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="139" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView showGridLines="0" topLeftCell="A27" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2986,255 +3031,237 @@
   <sheetData>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="317" t="s">
+      <c r="B3" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="306" t="s">
+      <c r="C3" s="201" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="306" t="s">
+      <c r="D3" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="318" t="s">
+      <c r="E3" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="319" t="s">
+      <c r="F3" s="211" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="306" t="s">
+      <c r="G3" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="320" t="s">
+      <c r="H3" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="321"/>
+      <c r="I3" s="213"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
-      <c r="B4" s="323" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" s="324"/>
-      <c r="D4" s="324"/>
-      <c r="E4" s="324"/>
-      <c r="F4" s="324"/>
-      <c r="G4" s="324"/>
-      <c r="H4" s="324"/>
-      <c r="I4" s="325"/>
+      <c r="B4" s="215" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="217"/>
       <c r="J4" s="176"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
-      <c r="B5" s="305" t="s">
+      <c r="B5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="303"/>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303"/>
-      <c r="H5" s="303"/>
-      <c r="I5" s="303"/>
       <c r="J5" s="176"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
-      <c r="B6" s="303"/>
-      <c r="C6" s="303" t="s">
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="309">
+      <c r="D6" s="1">
         <v>-3.0762671406486848</v>
       </c>
-      <c r="E6" s="309">
+      <c r="E6" s="1">
         <v>7.901821232443474E-3</v>
       </c>
-      <c r="F6" s="309">
+      <c r="F6" s="1">
         <v>-389.31115373985921</v>
       </c>
-      <c r="G6" s="303">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="310" t="s">
-        <v>216</v>
-      </c>
-      <c r="I6" s="305" t="s">
+      <c r="H6" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="176"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
-      <c r="B7" s="303"/>
-      <c r="C7" s="303" t="s">
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="309">
+      <c r="D7" s="1">
         <v>1.434488325830212E-2</v>
       </c>
-      <c r="E7" s="309">
+      <c r="E7" s="1">
         <v>1.2614382915310231E-2</v>
       </c>
-      <c r="F7" s="309">
+      <c r="F7" s="1">
         <v>1.1371847005604661</v>
       </c>
-      <c r="G7" s="304">
+      <c r="G7" s="200">
         <v>1</v>
       </c>
-      <c r="H7" s="309">
+      <c r="H7" s="1">
         <v>0.25546108136986512</v>
       </c>
-      <c r="I7" s="303"/>
       <c r="J7" s="176"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
-      <c r="B8" s="303"/>
-      <c r="C8" s="303" t="s">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="309">
+      <c r="D8" s="1">
         <v>4.7753940983475043E-3</v>
       </c>
-      <c r="E8" s="309">
+      <c r="E8" s="1">
         <v>1.1484643354607809E-2</v>
       </c>
-      <c r="F8" s="309">
+      <c r="F8" s="1">
         <v>0.41580691283996613</v>
       </c>
-      <c r="G8" s="304">
+      <c r="G8" s="200">
         <v>1</v>
       </c>
-      <c r="H8" s="309">
+      <c r="H8" s="1">
         <v>0.67755129999510832</v>
       </c>
-      <c r="I8" s="303"/>
       <c r="J8" s="176"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="22"/>
-      <c r="B9" s="303"/>
-      <c r="C9" s="303" t="s">
+      <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="309">
+      <c r="D9" s="1">
         <v>-4.2846216660238579E-2</v>
       </c>
-      <c r="E9" s="309">
+      <c r="E9" s="1">
         <v>9.088528194777009E-3</v>
       </c>
-      <c r="F9" s="309">
+      <c r="F9" s="1">
         <v>-4.7143185059228214</v>
       </c>
-      <c r="G9" s="304">
+      <c r="G9" s="200">
         <v>1</v>
       </c>
-      <c r="H9" s="310" t="s">
-        <v>216</v>
-      </c>
-      <c r="I9" s="305" t="s">
+      <c r="H9" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="176"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
-      <c r="B10" s="303"/>
-      <c r="C10" s="303" t="s">
+      <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="309">
+      <c r="D10" s="1">
         <v>-2.3496171823814041E-2</v>
       </c>
-      <c r="E10" s="309">
+      <c r="E10" s="1">
         <v>1.221266920864156E-2</v>
       </c>
-      <c r="F10" s="309">
+      <c r="F10" s="1">
         <v>-1.9239178121019109</v>
       </c>
-      <c r="G10" s="304">
+      <c r="G10" s="200">
         <v>1</v>
       </c>
-      <c r="H10" s="309">
+      <c r="H10" s="1">
         <v>5.4364886186398551E-2</v>
       </c>
-      <c r="I10" s="303"/>
       <c r="J10" s="176"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
-      <c r="B11" s="303"/>
-      <c r="C11" s="303" t="s">
+      <c r="C11" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="309">
+      <c r="D11" s="1">
         <v>0.30097902375472751</v>
       </c>
-      <c r="E11" s="309">
+      <c r="E11" s="1">
         <v>5.0371793605014967E-2</v>
       </c>
-      <c r="F11" s="309">
+      <c r="F11" s="1">
         <v>5.9751500237379336</v>
       </c>
-      <c r="G11" s="304">
+      <c r="G11" s="200">
         <v>1</v>
       </c>
-      <c r="H11" s="305">
+      <c r="H11" s="11">
         <v>2.2987853567417931E-9</v>
       </c>
-      <c r="I11" s="305" t="s">
+      <c r="I11" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J11" s="176"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" s="303"/>
-      <c r="C12" s="303" t="s">
+      <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="309">
+      <c r="D12" s="1">
         <v>0.75800690166931817</v>
       </c>
-      <c r="E12" s="309">
+      <c r="E12" s="1">
         <v>4.2987473423672429E-2</v>
       </c>
-      <c r="F12" s="309">
+      <c r="F12" s="1">
         <v>17.633204310442149</v>
       </c>
-      <c r="G12" s="304">
+      <c r="G12" s="200">
         <v>1</v>
       </c>
-      <c r="H12" s="310" t="s">
+      <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="305" t="s">
+      <c r="I12" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J12" s="176"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
-      <c r="B13" s="303"/>
-      <c r="C13" s="303" t="s">
+      <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="309">
+      <c r="D13" s="1">
         <v>5.1036223465472631E-2</v>
       </c>
-      <c r="E13" s="309">
+      <c r="E13" s="1">
         <v>2.5062255753745339E-2</v>
       </c>
-      <c r="F13" s="309">
+      <c r="F13" s="1">
         <v>2.0363778890032949</v>
       </c>
-      <c r="G13" s="304">
+      <c r="G13" s="200">
         <v>1</v>
       </c>
-      <c r="H13" s="311">
+      <c r="H13" s="7">
         <v>4.171242397639971E-2</v>
       </c>
-      <c r="I13" s="305" t="s">
+      <c r="I13" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="176"/>
@@ -3245,19 +3272,19 @@
       <c r="C14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="309">
+      <c r="D14" s="1">
         <v>0.24161432475559019</v>
       </c>
-      <c r="E14" s="309">
+      <c r="E14" s="1">
         <v>3.4084767180219272E-2</v>
       </c>
-      <c r="F14" s="309">
+      <c r="F14" s="1">
         <v>7.0886306330943194</v>
       </c>
       <c r="G14" s="6">
         <v>1</v>
       </c>
-      <c r="H14" s="305">
+      <c r="H14" s="11">
         <v>1.3544549253605269E-12</v>
       </c>
       <c r="I14" s="13" t="s">
@@ -3267,230 +3294,213 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="22"/>
-      <c r="B15" s="323" t="s">
-        <v>234</v>
-      </c>
-      <c r="C15" s="324"/>
-      <c r="D15" s="324"/>
-      <c r="E15" s="324"/>
-      <c r="F15" s="324"/>
-      <c r="G15" s="324"/>
-      <c r="H15" s="324"/>
-      <c r="I15" s="325"/>
+      <c r="B15" s="215" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="216"/>
+      <c r="D15" s="216"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="216"/>
+      <c r="H15" s="216"/>
+      <c r="I15" s="217"/>
       <c r="J15" s="176"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
-      <c r="B16" s="305" t="s">
+      <c r="B16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="303"/>
-      <c r="D16" s="303"/>
-      <c r="E16" s="303"/>
-      <c r="F16" s="303"/>
-      <c r="G16" s="303"/>
-      <c r="H16" s="303"/>
-      <c r="I16" s="303"/>
       <c r="J16" s="176"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="22"/>
-      <c r="B17" s="303"/>
-      <c r="C17" s="303" t="s">
+      <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="309">
+      <c r="D17" s="1">
         <v>5.9253820255442609</v>
       </c>
-      <c r="E17" s="309">
+      <c r="E17" s="1">
         <v>0.22629469165789931</v>
       </c>
-      <c r="F17" s="309">
+      <c r="F17" s="1">
         <v>26.184361560287719</v>
       </c>
-      <c r="G17" s="303">
+      <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="310" t="s">
-        <v>216</v>
-      </c>
-      <c r="I17" s="305" t="s">
+      <c r="H17" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J17" s="176"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
-      <c r="B18" s="303"/>
-      <c r="C18" s="303" t="s">
+      <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="309">
+      <c r="D18" s="1">
         <v>1.3138758482435211</v>
       </c>
-      <c r="E18" s="309">
+      <c r="E18" s="1">
         <v>0.49339874946016249</v>
       </c>
-      <c r="F18" s="309">
+      <c r="F18" s="1">
         <v>2.6629087521625441</v>
       </c>
-      <c r="G18" s="304">
+      <c r="G18" s="200">
         <v>1</v>
       </c>
-      <c r="H18" s="309">
+      <c r="H18" s="1">
         <v>7.7468418067891181E-3</v>
       </c>
-      <c r="I18" s="305" t="s">
-        <v>200</v>
+      <c r="I18" s="11" t="s">
+        <v>198</v>
       </c>
       <c r="J18" s="176"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="22"/>
-      <c r="B19" s="303"/>
-      <c r="C19" s="303" t="s">
+      <c r="C19" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="309">
+      <c r="D19" s="1">
         <v>-0.44961030625207488</v>
       </c>
-      <c r="E19" s="309">
+      <c r="E19" s="1">
         <v>0.33090967733320981</v>
       </c>
-      <c r="F19" s="309">
+      <c r="F19" s="1">
         <v>-1.35871005609588</v>
       </c>
-      <c r="G19" s="304">
+      <c r="G19" s="200">
         <v>1</v>
       </c>
-      <c r="H19" s="309">
+      <c r="H19" s="1">
         <v>0.1742384842573356</v>
       </c>
-      <c r="I19" s="303"/>
       <c r="J19" s="176"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
-      <c r="B20" s="303"/>
-      <c r="C20" s="303" t="s">
+      <c r="C20" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="309">
+      <c r="D20" s="1">
         <v>-0.57079848454782556</v>
       </c>
-      <c r="E20" s="309">
+      <c r="E20" s="1">
         <v>0.32566677977866237</v>
       </c>
-      <c r="F20" s="309">
+      <c r="F20" s="1">
         <v>-1.7527071227091859</v>
       </c>
-      <c r="G20" s="304">
+      <c r="G20" s="200">
         <v>1</v>
       </c>
-      <c r="H20" s="309">
+      <c r="H20" s="1">
         <v>7.9652292470584363E-2</v>
       </c>
-      <c r="I20" s="305"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="176"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
-      <c r="B21" s="303"/>
-      <c r="C21" s="303" t="s">
+      <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="309">
+      <c r="D21" s="1">
         <v>-0.26371094656107408</v>
       </c>
-      <c r="E21" s="309">
+      <c r="E21" s="1">
         <v>0.33898488370273172</v>
       </c>
-      <c r="F21" s="309">
+      <c r="F21" s="1">
         <v>-0.77794308607675844</v>
       </c>
-      <c r="G21" s="304">
+      <c r="G21" s="200">
         <v>1</v>
       </c>
-      <c r="H21" s="309">
+      <c r="H21" s="1">
         <v>0.43660256629867028</v>
       </c>
-      <c r="I21" s="303"/>
       <c r="J21" s="176"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="303"/>
-      <c r="C22" s="303" t="s">
+      <c r="C22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="309">
+      <c r="D22" s="1">
         <v>-4.5321363503787131</v>
       </c>
-      <c r="E22" s="309">
+      <c r="E22" s="1">
         <v>0.60417329903512296</v>
       </c>
-      <c r="F22" s="309">
+      <c r="F22" s="1">
         <v>-7.5013847146449981</v>
       </c>
-      <c r="G22" s="304">
+      <c r="G22" s="200">
         <v>1</v>
       </c>
-      <c r="H22" s="303">
+      <c r="H22">
         <v>6.3147154463943799E-14</v>
       </c>
-      <c r="I22" s="305" t="s">
+      <c r="I22" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J22" s="176"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
-      <c r="B23" s="303"/>
-      <c r="C23" s="303" t="s">
+      <c r="C23" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="309">
+      <c r="D23" s="1">
         <v>-0.95775315242691805</v>
       </c>
-      <c r="E23" s="309">
+      <c r="E23" s="1">
         <v>0.44912657627988761</v>
       </c>
-      <c r="F23" s="309">
+      <c r="F23" s="1">
         <v>-2.1324793566214248</v>
       </c>
-      <c r="G23" s="304">
+      <c r="G23" s="200">
         <v>1</v>
       </c>
-      <c r="H23" s="309">
+      <c r="H23" s="1">
         <v>3.2967459767541007E-2</v>
       </c>
-      <c r="I23" s="305" t="s">
+      <c r="I23" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J23" s="176"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="303"/>
-      <c r="C24" s="303" t="s">
+      <c r="C24" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="309">
+      <c r="D24" s="1">
         <v>-4.5686039752532954</v>
       </c>
-      <c r="E24" s="309">
+      <c r="E24" s="1">
         <v>0.61876958695522566</v>
       </c>
-      <c r="F24" s="309">
+      <c r="F24" s="1">
         <v>-7.3833686586536773</v>
       </c>
-      <c r="G24" s="304">
+      <c r="G24" s="200">
         <v>1</v>
       </c>
-      <c r="H24" s="303">
+      <c r="H24">
         <v>1.543339101846033E-13</v>
       </c>
-      <c r="I24" s="305" t="s">
+      <c r="I24" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J24" s="176"/>
@@ -3521,169 +3531,84 @@
       </c>
       <c r="J25" s="176"/>
     </row>
-    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="317" t="s">
+    <row r="32" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="306" t="s">
+      <c r="C33" s="201" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="306" t="s">
+      <c r="D33" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="E29" s="318" t="s">
+      <c r="E33" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="319" t="s">
+      <c r="F33" s="211" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="306" t="s">
+      <c r="G33" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="320" t="s">
+      <c r="H33" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="I29" s="322"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="307" t="s">
-        <v>225</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="308"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="33"/>
-      <c r="C31" s="303" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="309">
-        <v>-4.5951381443470796</v>
-      </c>
-      <c r="E31" s="309">
-        <v>3.8208635768914898</v>
-      </c>
-      <c r="F31" s="309">
-        <v>-1.2026438662030201</v>
-      </c>
-      <c r="G31" s="303">
-        <v>143</v>
-      </c>
-      <c r="H31" s="309">
-        <v>0.22911416485913</v>
-      </c>
-      <c r="I31" s="67"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="33"/>
-      <c r="C32" s="303" t="s">
-        <v>229</v>
-      </c>
-      <c r="D32" s="309">
-        <v>-23.404074413651301</v>
-      </c>
-      <c r="E32" s="309">
-        <v>80.691129103388306</v>
-      </c>
-      <c r="F32" s="309">
-        <v>-0.290045196711327</v>
-      </c>
-      <c r="G32" s="303">
-        <v>143</v>
-      </c>
-      <c r="H32" s="309">
-        <v>0.77178166102759904</v>
-      </c>
-      <c r="I32" s="68"/>
-    </row>
-    <row r="33" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="69"/>
-      <c r="C33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="5">
-        <v>1.6044259237068901</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0.28423618539768503</v>
-      </c>
-      <c r="F33" s="5">
-        <v>5.6446927102616398</v>
-      </c>
-      <c r="G33" s="4">
-        <v>143</v>
-      </c>
-      <c r="H33" s="8">
-        <v>1.6547653662960798E-8</v>
-      </c>
-      <c r="I33" s="312" t="s">
-        <v>5</v>
-      </c>
+      <c r="I33" s="214"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="303"/>
-      <c r="D34" s="309"/>
-      <c r="E34" s="309"/>
-      <c r="F34" s="309"/>
-      <c r="G34" s="303"/>
-      <c r="H34" s="303"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
       <c r="I34" s="68"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="33"/>
-      <c r="C35" s="303" t="s">
+      <c r="C35" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="309">
-        <v>-3.69848123173694</v>
-      </c>
-      <c r="E35" s="309">
-        <v>1.25677552883671</v>
-      </c>
-      <c r="F35" s="309">
-        <v>-2.9428335823504801</v>
-      </c>
-      <c r="G35" s="303">
+      <c r="D35" s="1">
+        <v>-2.6669483315652398</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1.3898943675678199</v>
+      </c>
+      <c r="F35">
+        <v>-1.91881368382846</v>
+      </c>
+      <c r="G35">
         <v>128</v>
       </c>
-      <c r="H35" s="311">
-        <v>3.2522319332884799E-3</v>
-      </c>
-      <c r="I35" s="67" t="s">
-        <v>200</v>
-      </c>
+      <c r="H35" s="1">
+        <v>5.5007917458071799E-2</v>
+      </c>
+      <c r="I35" s="67"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="33"/>
-      <c r="C36" s="303" t="s">
-        <v>228</v>
-      </c>
-      <c r="D36" s="309">
-        <v>-48.758676072823903</v>
-      </c>
-      <c r="E36" s="309">
-        <v>17.3409955510736</v>
-      </c>
-      <c r="F36" s="309">
-        <v>-2.8117576023370399</v>
-      </c>
-      <c r="G36" s="303">
+      <c r="C36" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-71.616979078306898</v>
+      </c>
+      <c r="E36" s="1">
+        <v>24.076713738357199</v>
+      </c>
+      <c r="F36">
+        <v>-2.9745329805625502</v>
+      </c>
+      <c r="G36">
         <v>128</v>
       </c>
-      <c r="H36" s="311">
-        <v>4.9271619099638198E-3</v>
+      <c r="H36" s="7">
+        <v>2.9343491058936499E-3</v>
       </c>
       <c r="I36" s="67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3692,103 +3617,183 @@
         <v>8</v>
       </c>
       <c r="D37" s="5">
-        <v>1.87459187545626</v>
+        <v>1.9160859398022101</v>
       </c>
       <c r="E37" s="5">
-        <v>0.37311228228689902</v>
-      </c>
-      <c r="F37" s="5">
-        <v>5.0242030735799199</v>
+        <v>0.39878579513948198</v>
+      </c>
+      <c r="F37" s="4">
+        <v>4.8047998779194998</v>
       </c>
       <c r="G37" s="4">
         <v>128</v>
       </c>
       <c r="H37" s="8">
-        <v>5.0552724952308501E-7</v>
-      </c>
-      <c r="I37" s="312" t="s">
+        <v>1.54906366412457E-6</v>
+      </c>
+      <c r="I37" s="204" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="313" t="s">
+      <c r="B38" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="314"/>
-      <c r="D38" s="309"/>
-      <c r="E38" s="309"/>
-      <c r="F38" s="309"/>
-      <c r="G38" s="303"/>
-      <c r="H38" s="309"/>
+      <c r="C38" s="206"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="H38" s="1"/>
       <c r="I38" s="68"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="315"/>
-      <c r="C39" s="314" t="s">
+      <c r="B39" s="207"/>
+      <c r="C39" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="309">
-        <v>4.2956568915197799</v>
-      </c>
-      <c r="E39" s="309">
-        <v>3.2156510452307798</v>
-      </c>
-      <c r="F39" s="309">
-        <v>1.3358591560769</v>
-      </c>
-      <c r="G39" s="303">
+      <c r="D39" s="1">
+        <v>4.1305141838435802</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3.21173119791206</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1.28607094719783</v>
+      </c>
+      <c r="G39">
         <v>142</v>
       </c>
-      <c r="H39" s="309">
-        <v>0.18159531314309801</v>
+      <c r="H39" s="1">
+        <v>0.19841830238505601</v>
       </c>
       <c r="I39" s="67"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="315"/>
-      <c r="C40" s="314" t="s">
-        <v>227</v>
-      </c>
-      <c r="D40" s="309">
-        <v>-226.673371957786</v>
-      </c>
-      <c r="E40" s="309">
-        <v>74.218716000067403</v>
-      </c>
-      <c r="F40" s="309">
-        <v>-3.0541268318031798</v>
-      </c>
-      <c r="G40" s="303">
+      <c r="B40" s="207"/>
+      <c r="C40" s="206" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-217.93021889104699</v>
+      </c>
+      <c r="E40" s="1">
+        <v>73.370460013903497</v>
+      </c>
+      <c r="F40" s="1">
+        <v>-2.9702719439097098</v>
+      </c>
+      <c r="G40">
         <v>142</v>
       </c>
-      <c r="H40" s="311">
-        <v>2.2571663213691198E-3</v>
+      <c r="H40" s="7">
+        <v>2.9753623126743001E-3</v>
       </c>
       <c r="I40" s="67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="316"/>
+      <c r="B41" s="208"/>
       <c r="C41" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="5">
-        <v>1.87400174678734</v>
+        <v>1.7640186549213299</v>
       </c>
       <c r="E41" s="5">
-        <v>0.34091581639962998</v>
+        <v>0.327952614463418</v>
       </c>
       <c r="F41" s="5">
-        <v>5.4969633459029303</v>
+        <v>5.3788827322128299</v>
       </c>
       <c r="G41" s="4">
         <v>142</v>
       </c>
       <c r="H41" s="8">
-        <v>3.86386972654473E-8</v>
-      </c>
-      <c r="I41" s="312" t="s">
+        <v>7.4949506106655504E-8</v>
+      </c>
+      <c r="I41" s="204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="202" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="203"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="33"/>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-4.5951381443470796</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3.8208635768914898</v>
+      </c>
+      <c r="F44" s="1">
+        <v>-1.2026438662030201</v>
+      </c>
+      <c r="G44">
+        <v>143</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.22911416485913</v>
+      </c>
+      <c r="I44" s="67"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="33"/>
+      <c r="C45" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-23.404074413651301</v>
+      </c>
+      <c r="E45" s="1">
+        <v>80.691129103388306</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-0.290045196711327</v>
+      </c>
+      <c r="G45">
+        <v>143</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.77178166102759904</v>
+      </c>
+      <c r="I45" s="68"/>
+    </row>
+    <row r="46" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="69"/>
+      <c r="C46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1.6044259237068901</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.28423618539768503</v>
+      </c>
+      <c r="F46" s="5">
+        <v>5.6446927102616398</v>
+      </c>
+      <c r="G46" s="4">
+        <v>143</v>
+      </c>
+      <c r="H46" s="8">
+        <v>1.6547653662960798E-8</v>
+      </c>
+      <c r="I46" s="204" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3796,6 +3801,497 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2703868A-3146-CD4D-92FF-10AE08C79280}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="6" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="22"/>
+      <c r="B1" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="87" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B2" s="313" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="315" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="332" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="328" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="328" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="93" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="328" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="313"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="332"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="322"/>
+    </row>
+    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B4" s="313"/>
+      <c r="C4" s="316"/>
+      <c r="D4" s="332"/>
+      <c r="E4" s="322"/>
+      <c r="F4" s="322" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="322"/>
+      <c r="H4" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="322"/>
+      <c r="J4" s="81"/>
+    </row>
+    <row r="5" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="313"/>
+      <c r="C5" s="317"/>
+      <c r="D5" s="114" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="335"/>
+      <c r="F5" s="322"/>
+      <c r="G5" s="322"/>
+      <c r="H5" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="322"/>
+      <c r="J5" s="81"/>
+    </row>
+    <row r="6" spans="1:10" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="314"/>
+      <c r="C6" s="317"/>
+      <c r="D6" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="335"/>
+      <c r="F6" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="322"/>
+      <c r="H6" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="322"/>
+      <c r="J6" s="81"/>
+    </row>
+    <row r="7" spans="1:10" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="97" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="118" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="102" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" s="98"/>
+      <c r="J7" s="81"/>
+    </row>
+    <row r="8" spans="1:10" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="318" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="322" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="331" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="333" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="322" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" s="81"/>
+    </row>
+    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B9" s="319"/>
+      <c r="C9" s="322"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="333"/>
+      <c r="F9" s="322"/>
+      <c r="G9" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" s="81"/>
+    </row>
+    <row r="10" spans="1:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="319"/>
+      <c r="C10" s="321" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="114" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="330"/>
+      <c r="F10" s="322" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="I10" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="J10" s="81"/>
+    </row>
+    <row r="11" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="B11" s="320"/>
+      <c r="C11" s="321"/>
+      <c r="D11" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="330"/>
+      <c r="F11" s="322"/>
+      <c r="G11" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="90" t="s">
+        <v>143</v>
+      </c>
+      <c r="J11" s="81"/>
+    </row>
+    <row r="12" spans="1:10" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="101" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="113" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="117" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="102" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="125" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="104"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="81"/>
+    </row>
+    <row r="13" spans="1:10" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="325" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="328" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="109" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" s="329" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="I13" s="93" t="s">
+        <v>180</v>
+      </c>
+      <c r="J13" s="81"/>
+    </row>
+    <row r="14" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="326"/>
+      <c r="C14" s="321"/>
+      <c r="D14" s="111" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="330"/>
+      <c r="F14" s="322" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="I14" s="322" t="s">
+        <v>181</v>
+      </c>
+      <c r="J14" s="81"/>
+    </row>
+    <row r="15" spans="1:10" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="326"/>
+      <c r="C15" s="321"/>
+      <c r="D15" s="112" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="330"/>
+      <c r="F15" s="322"/>
+      <c r="G15" s="333" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="322" t="s">
+        <v>179</v>
+      </c>
+      <c r="I15" s="322"/>
+      <c r="J15" s="81"/>
+    </row>
+    <row r="16" spans="1:10" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="327"/>
+      <c r="C16" s="321"/>
+      <c r="D16" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="330"/>
+      <c r="F16" s="322"/>
+      <c r="G16" s="333"/>
+      <c r="H16" s="331"/>
+      <c r="I16" s="331"/>
+      <c r="J16" s="81"/>
+    </row>
+    <row r="17" spans="2:10" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="110" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="117" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="102" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" s="108" t="s">
+        <v>186</v>
+      </c>
+      <c r="H17" s="103"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="81"/>
+    </row>
+    <row r="18" spans="2:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="318" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="322" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="89" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" s="333" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="322" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="88" t="s">
+        <v>183</v>
+      </c>
+      <c r="I18" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" s="81"/>
+    </row>
+    <row r="19" spans="2:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="B19" s="319"/>
+      <c r="C19" s="322"/>
+      <c r="D19" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="333"/>
+      <c r="F19" s="322"/>
+      <c r="G19" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" s="322" t="s">
+        <v>182</v>
+      </c>
+      <c r="I19" s="322" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" s="81"/>
+    </row>
+    <row r="20" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B20" s="319"/>
+      <c r="C20" s="322"/>
+      <c r="D20" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="333"/>
+      <c r="F20" s="322"/>
+      <c r="G20" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" s="322"/>
+      <c r="I20" s="322"/>
+      <c r="J20" s="81"/>
+    </row>
+    <row r="21" spans="2:10" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="324"/>
+      <c r="C21" s="323"/>
+      <c r="D21" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21" s="334"/>
+      <c r="F21" s="323"/>
+      <c r="G21" s="95" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" s="323"/>
+      <c r="I21" s="323"/>
+      <c r="J21" s="81"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="81"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J23" s="81"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="81"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="81"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3817,27 +4313,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="201" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
+      <c r="B2" s="230" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
     </row>
     <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
-      <c r="B3" s="202" t="s">
+      <c r="B3" s="232" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
       <c r="I3" s="176"/>
     </row>
     <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3934,15 +4430,15 @@
     </row>
     <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
-      <c r="B8" s="202" t="s">
+      <c r="B8" s="232" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="232"/>
+      <c r="E8" s="232"/>
+      <c r="F8" s="232"/>
+      <c r="G8" s="232"/>
+      <c r="H8" s="232"/>
       <c r="I8" s="176"/>
     </row>
     <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4011,7 +4507,7 @@
         <v>-18.325511938111941</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H11" s="126" t="s">
         <v>5</v>
@@ -4045,15 +4541,15 @@
     </row>
     <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
-      <c r="B13" s="202" t="s">
+      <c r="B13" s="232" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="202"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="202"/>
+      <c r="C13" s="232"/>
+      <c r="D13" s="232"/>
+      <c r="E13" s="232"/>
+      <c r="F13" s="232"/>
+      <c r="G13" s="232"/>
+      <c r="H13" s="232"/>
       <c r="I13" s="176"/>
     </row>
     <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4100,7 +4596,7 @@
         <v>8.4659884643877303E-3</v>
       </c>
       <c r="H15" s="126" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I15" s="176"/>
     </row>
@@ -4156,7 +4652,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4175,7 +4671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930D1074-1A74-E547-BBFB-8A77C2B1659D}">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="177" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="177" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -4189,13 +4685,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="203" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
+      <c r="B2" s="235" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
     </row>
     <row r="3" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="183" t="s">
@@ -4345,29 +4841,29 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="203" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="203"/>
-      <c r="D11" s="203"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="203"/>
+      <c r="B11" s="235" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="235"/>
+      <c r="D11" s="235"/>
+      <c r="E11" s="235"/>
+      <c r="F11" s="235"/>
     </row>
     <row r="12" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="200"/>
-      <c r="C12" s="200"/>
-      <c r="D12" s="200"/>
-      <c r="E12" s="200"/>
-      <c r="F12" s="200"/>
+      <c r="B12" s="231"/>
+      <c r="C12" s="231"/>
+      <c r="D12" s="231"/>
+      <c r="E12" s="231"/>
+      <c r="F12" s="231"/>
     </row>
     <row r="13" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="204" t="s">
+      <c r="B13" s="236" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="202"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="205"/>
+      <c r="C13" s="232"/>
+      <c r="D13" s="232"/>
+      <c r="E13" s="232"/>
+      <c r="F13" s="237"/>
     </row>
     <row r="14" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="122" t="s">
@@ -4387,7 +4883,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="208" t="s">
+      <c r="B15" s="233" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -4404,7 +4900,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="209"/>
+      <c r="B16" s="240"/>
       <c r="C16" s="11" t="s">
         <v>68</v>
       </c>
@@ -4453,13 +4949,13 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="204" t="s">
+      <c r="B19" s="236" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="202"/>
-      <c r="D19" s="206"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="207"/>
+      <c r="C19" s="232"/>
+      <c r="D19" s="238"/>
+      <c r="E19" s="238"/>
+      <c r="F19" s="239"/>
     </row>
     <row r="20" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="122" t="s">
@@ -4479,7 +4975,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="208" t="s">
+      <c r="B21" s="233" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4496,7 +4992,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="210"/>
+      <c r="B22" s="234"/>
       <c r="C22" s="11" t="s">
         <v>68</v>
       </c>
@@ -4545,13 +5041,13 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="204" t="s">
+      <c r="B25" s="236" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="202"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="207"/>
+      <c r="C25" s="232"/>
+      <c r="D25" s="238"/>
+      <c r="E25" s="238"/>
+      <c r="F25" s="239"/>
       <c r="G25" s="119"/>
     </row>
     <row r="26" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4572,7 +5068,7 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="208" t="s">
+      <c r="B27" s="233" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -4589,7 +5085,7 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="210"/>
+      <c r="B28" s="234"/>
       <c r="C28" s="11" t="s">
         <v>68</v>
       </c>
@@ -4655,10 +5151,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42959FE-15BC-FE4E-8BAD-7EB0FE5BE991}">
-  <dimension ref="E1:P26"/>
+  <dimension ref="E1:P36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="171" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D19" zoomScale="171" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4668,77 +5164,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E1" s="218" t="s">
-        <v>230</v>
-      </c>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="218"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="218"/>
+      <c r="E1" s="259" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
+      <c r="N1" s="259"/>
+      <c r="O1" s="259"/>
     </row>
     <row r="2" spans="5:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
-      <c r="L2" s="219"/>
-      <c r="M2" s="219"/>
-      <c r="N2" s="219"/>
-      <c r="O2" s="219"/>
+      <c r="E2" s="260"/>
+      <c r="F2" s="260"/>
+      <c r="G2" s="260"/>
+      <c r="H2" s="260"/>
+      <c r="I2" s="260"/>
+      <c r="J2" s="260"/>
+      <c r="K2" s="260"/>
+      <c r="L2" s="260"/>
+      <c r="M2" s="260"/>
+      <c r="N2" s="260"/>
+      <c r="O2" s="260"/>
     </row>
     <row r="3" spans="5:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="222" t="s">
+      <c r="E3" s="246" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="215" t="s">
-        <v>214</v>
-      </c>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="216"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="216"/>
-      <c r="P3" s="217"/>
+      <c r="F3" s="243" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
+      <c r="N3" s="244"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="245"/>
     </row>
     <row r="4" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E4" s="223"/>
-      <c r="F4" s="225" t="s">
-        <v>212</v>
-      </c>
-      <c r="G4" s="225"/>
-      <c r="H4" s="225"/>
-      <c r="I4" s="226"/>
-      <c r="J4" s="210" t="s">
-        <v>236</v>
-      </c>
-      <c r="K4" s="225"/>
-      <c r="L4" s="225"/>
-      <c r="M4" s="225"/>
-      <c r="N4" s="227" t="s">
+      <c r="E4" s="247"/>
+      <c r="F4" s="249" t="s">
         <v>210</v>
       </c>
-      <c r="O4" s="211" t="s">
-        <v>211</v>
-      </c>
-      <c r="P4" s="213" t="s">
+      <c r="G4" s="249"/>
+      <c r="H4" s="249"/>
+      <c r="I4" s="250"/>
+      <c r="J4" s="234" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="249"/>
+      <c r="L4" s="249"/>
+      <c r="M4" s="249"/>
+      <c r="N4" s="251" t="s">
+        <v>208</v>
+      </c>
+      <c r="O4" s="255" t="s">
+        <v>209</v>
+      </c>
+      <c r="P4" s="257" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="5:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="224"/>
+      <c r="E5" s="248"/>
       <c r="F5" s="139" t="s">
         <v>68</v>
       </c>
@@ -4749,7 +5245,7 @@
         <v>21</v>
       </c>
       <c r="I5" s="140" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J5" s="138" t="s">
         <v>68</v>
@@ -4761,11 +5257,11 @@
         <v>21</v>
       </c>
       <c r="M5" s="139" t="s">
-        <v>209</v>
-      </c>
-      <c r="N5" s="228"/>
-      <c r="O5" s="212"/>
-      <c r="P5" s="214"/>
+        <v>207</v>
+      </c>
+      <c r="N5" s="252"/>
+      <c r="O5" s="256"/>
+      <c r="P5" s="258"/>
     </row>
     <row r="6" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E6" s="135" t="s">
@@ -4783,16 +5279,16 @@
       <c r="I6" s="150">
         <v>0.44800000000000001</v>
       </c>
-      <c r="J6" s="326">
+      <c r="J6" s="218">
         <v>7.2218925741742809E-2</v>
       </c>
-      <c r="K6" s="326">
+      <c r="K6" s="218">
         <v>8.0872271629461645E-2</v>
       </c>
-      <c r="L6" s="326">
+      <c r="L6" s="218">
         <v>4.9024584521870516</v>
       </c>
-      <c r="M6" s="326">
+      <c r="M6" s="218">
         <v>0.10222636088062211</v>
       </c>
       <c r="N6" s="196">
@@ -4821,16 +5317,16 @@
       <c r="I7" s="150">
         <v>0.33200000000000002</v>
       </c>
-      <c r="J7" s="326">
+      <c r="J7" s="218">
         <v>0.99733996731630592</v>
       </c>
-      <c r="K7" s="326">
+      <c r="K7" s="218">
         <v>0.71832511900333473</v>
       </c>
-      <c r="L7" s="326">
+      <c r="L7" s="218">
         <v>2.4145408560895718</v>
       </c>
-      <c r="M7" s="326">
+      <c r="M7" s="218">
         <v>0.69545172345291428</v>
       </c>
       <c r="N7" s="197">
@@ -4859,16 +5355,16 @@
       <c r="I8" s="142">
         <v>0.05</v>
       </c>
-      <c r="J8" s="327">
+      <c r="J8" s="219">
         <v>0.83101133031410823</v>
       </c>
-      <c r="K8" s="328">
+      <c r="K8" s="220">
         <v>0.66617586500273451</v>
       </c>
-      <c r="L8" s="328">
+      <c r="L8" s="220">
         <v>0.89291114104326164</v>
       </c>
-      <c r="M8" s="329">
+      <c r="M8" s="221">
         <v>0.23490988658516759</v>
       </c>
       <c r="N8" s="198">
@@ -4882,73 +5378,73 @@
       </c>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E12" s="218" t="s">
-        <v>231</v>
-      </c>
-      <c r="F12" s="218"/>
-      <c r="G12" s="218"/>
-      <c r="H12" s="218"/>
-      <c r="I12" s="218"/>
-      <c r="J12" s="218"/>
-      <c r="K12" s="218"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="218"/>
-      <c r="N12" s="218"/>
-      <c r="O12" s="218"/>
+      <c r="E12" s="259" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="259"/>
+      <c r="G12" s="259"/>
+      <c r="H12" s="259"/>
+      <c r="I12" s="259"/>
+      <c r="J12" s="259"/>
+      <c r="K12" s="259"/>
+      <c r="L12" s="259"/>
+      <c r="M12" s="259"/>
+      <c r="N12" s="259"/>
+      <c r="O12" s="259"/>
     </row>
     <row r="13" spans="5:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="219"/>
-      <c r="F13" s="219"/>
-      <c r="G13" s="219"/>
-      <c r="H13" s="219"/>
-      <c r="I13" s="219"/>
-      <c r="J13" s="219"/>
-      <c r="K13" s="219"/>
-      <c r="L13" s="219"/>
-      <c r="M13" s="219"/>
-      <c r="N13" s="219"/>
-      <c r="O13" s="219"/>
+      <c r="E13" s="260"/>
+      <c r="F13" s="260"/>
+      <c r="G13" s="260"/>
+      <c r="H13" s="260"/>
+      <c r="I13" s="260"/>
+      <c r="J13" s="260"/>
+      <c r="K13" s="260"/>
+      <c r="L13" s="260"/>
+      <c r="M13" s="260"/>
+      <c r="N13" s="260"/>
+      <c r="O13" s="260"/>
     </row>
     <row r="14" spans="5:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="222" t="s">
+      <c r="E14" s="246" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="215" t="s">
+      <c r="F14" s="243" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="216"/>
-      <c r="H14" s="216"/>
-      <c r="I14" s="216"/>
-      <c r="J14" s="216"/>
-      <c r="K14" s="216"/>
-      <c r="L14" s="216"/>
-      <c r="M14" s="216"/>
-      <c r="N14" s="216"/>
-      <c r="O14" s="217"/>
+      <c r="G14" s="244"/>
+      <c r="H14" s="244"/>
+      <c r="I14" s="244"/>
+      <c r="J14" s="244"/>
+      <c r="K14" s="244"/>
+      <c r="L14" s="244"/>
+      <c r="M14" s="244"/>
+      <c r="N14" s="244"/>
+      <c r="O14" s="245"/>
     </row>
     <row r="15" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E15" s="223"/>
-      <c r="F15" s="225" t="s">
-        <v>212</v>
-      </c>
-      <c r="G15" s="225"/>
-      <c r="H15" s="225"/>
-      <c r="I15" s="226"/>
-      <c r="J15" s="210" t="s">
-        <v>213</v>
-      </c>
-      <c r="K15" s="225"/>
-      <c r="L15" s="225"/>
-      <c r="M15" s="225"/>
-      <c r="N15" s="229" t="s">
+      <c r="E15" s="247"/>
+      <c r="F15" s="249" t="s">
         <v>210</v>
       </c>
-      <c r="O15" s="220" t="s">
+      <c r="G15" s="249"/>
+      <c r="H15" s="249"/>
+      <c r="I15" s="250"/>
+      <c r="J15" s="234" t="s">
         <v>211</v>
       </c>
+      <c r="K15" s="249"/>
+      <c r="L15" s="249"/>
+      <c r="M15" s="249"/>
+      <c r="N15" s="253" t="s">
+        <v>208</v>
+      </c>
+      <c r="O15" s="241" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="16" spans="5:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="224"/>
+      <c r="E16" s="248"/>
       <c r="F16" s="139" t="s">
         <v>68</v>
       </c>
@@ -4959,7 +5455,7 @@
         <v>21</v>
       </c>
       <c r="I16" s="140" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J16" s="138" t="s">
         <v>68</v>
@@ -4971,38 +5467,38 @@
         <v>21</v>
       </c>
       <c r="M16" s="140" t="s">
-        <v>209</v>
-      </c>
-      <c r="N16" s="230"/>
-      <c r="O16" s="221"/>
-    </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="N16" s="254"/>
+      <c r="O16" s="242"/>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E17" s="135" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="146" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G17" s="146" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H17" s="146" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I17" s="146" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J17" s="147" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K17" s="146" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L17" s="146" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M17" s="146" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N17" s="144">
         <v>0</v>
@@ -5011,7 +5507,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E18" s="136" t="s">
         <v>14</v>
       </c>
@@ -5046,7 +5542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="5:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E19" s="137" t="s">
         <v>15</v>
       </c>
@@ -5081,46 +5577,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="5:15" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="222" t="s">
+    <row r="20" spans="5:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="246" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="215" t="s">
-        <v>214</v>
-      </c>
-      <c r="G20" s="216"/>
-      <c r="H20" s="216"/>
-      <c r="I20" s="216"/>
-      <c r="J20" s="216"/>
-      <c r="K20" s="216"/>
-      <c r="L20" s="216"/>
-      <c r="M20" s="216"/>
-      <c r="N20" s="216"/>
-      <c r="O20" s="217"/>
-    </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E21" s="223"/>
-      <c r="F21" s="225" t="s">
+      <c r="F20" s="243" t="s">
         <v>212</v>
       </c>
-      <c r="G21" s="225"/>
-      <c r="H21" s="225"/>
-      <c r="I21" s="226"/>
-      <c r="J21" s="210" t="s">
-        <v>213</v>
-      </c>
-      <c r="K21" s="225"/>
-      <c r="L21" s="225"/>
-      <c r="M21" s="226"/>
-      <c r="N21" s="229" t="s">
+      <c r="G20" s="244"/>
+      <c r="H20" s="244"/>
+      <c r="I20" s="244"/>
+      <c r="J20" s="244"/>
+      <c r="K20" s="244"/>
+      <c r="L20" s="244"/>
+      <c r="M20" s="244"/>
+      <c r="N20" s="244"/>
+      <c r="O20" s="245"/>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E21" s="247"/>
+      <c r="F21" s="249" t="s">
         <v>210</v>
       </c>
-      <c r="O21" s="220" t="s">
+      <c r="G21" s="249"/>
+      <c r="H21" s="249"/>
+      <c r="I21" s="250"/>
+      <c r="J21" s="234" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="22" spans="5:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="224"/>
+      <c r="K21" s="249"/>
+      <c r="L21" s="249"/>
+      <c r="M21" s="250"/>
+      <c r="N21" s="253" t="s">
+        <v>208</v>
+      </c>
+      <c r="O21" s="241" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="5:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="248"/>
       <c r="F22" s="139" t="s">
         <v>68</v>
       </c>
@@ -5131,7 +5627,7 @@
         <v>21</v>
       </c>
       <c r="I22" s="140" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J22" s="138" t="s">
         <v>68</v>
@@ -5143,12 +5639,12 @@
         <v>21</v>
       </c>
       <c r="M22" s="140" t="s">
-        <v>209</v>
-      </c>
-      <c r="N22" s="230"/>
-      <c r="O22" s="221"/>
-    </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="N22" s="254"/>
+      <c r="O22" s="242"/>
+    </row>
+    <row r="23" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E23" s="135" t="s">
         <v>13</v>
       </c>
@@ -5183,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E24" s="136" t="s">
         <v>14</v>
       </c>
@@ -5218,7 +5714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="5:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E25" s="137" t="s">
         <v>15</v>
       </c>
@@ -5253,11 +5749,238 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E26" s="11"/>
     </row>
+    <row r="29" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E29" s="259" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="259"/>
+      <c r="G29" s="259"/>
+      <c r="H29" s="259"/>
+      <c r="I29" s="259"/>
+      <c r="J29" s="259"/>
+      <c r="K29" s="259"/>
+      <c r="L29" s="259"/>
+      <c r="M29" s="259"/>
+      <c r="N29" s="259"/>
+      <c r="O29" s="259"/>
+    </row>
+    <row r="30" spans="5:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="260"/>
+      <c r="F30" s="260"/>
+      <c r="G30" s="260"/>
+      <c r="H30" s="260"/>
+      <c r="I30" s="260"/>
+      <c r="J30" s="260"/>
+      <c r="K30" s="260"/>
+      <c r="L30" s="260"/>
+      <c r="M30" s="260"/>
+      <c r="N30" s="260"/>
+      <c r="O30" s="260"/>
+    </row>
+    <row r="31" spans="5:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="246" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="243" t="s">
+        <v>212</v>
+      </c>
+      <c r="G31" s="244"/>
+      <c r="H31" s="244"/>
+      <c r="I31" s="244"/>
+      <c r="J31" s="244"/>
+      <c r="K31" s="244"/>
+      <c r="L31" s="244"/>
+      <c r="M31" s="244"/>
+      <c r="N31" s="244"/>
+      <c r="O31" s="244"/>
+      <c r="P31" s="245"/>
+    </row>
+    <row r="32" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E32" s="247"/>
+      <c r="F32" s="249" t="s">
+        <v>211</v>
+      </c>
+      <c r="G32" s="249"/>
+      <c r="H32" s="249"/>
+      <c r="I32" s="250"/>
+      <c r="J32" s="234" t="s">
+        <v>233</v>
+      </c>
+      <c r="K32" s="249"/>
+      <c r="L32" s="249"/>
+      <c r="M32" s="249"/>
+      <c r="N32" s="251" t="s">
+        <v>208</v>
+      </c>
+      <c r="O32" s="255" t="s">
+        <v>209</v>
+      </c>
+      <c r="P32" s="257" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="5:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="248"/>
+      <c r="F33" s="139" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="139" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="139" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="140" t="s">
+        <v>207</v>
+      </c>
+      <c r="J33" s="138" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" s="139" t="s">
+        <v>67</v>
+      </c>
+      <c r="L33" s="139" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="139" t="s">
+        <v>207</v>
+      </c>
+      <c r="N33" s="252"/>
+      <c r="O33" s="256"/>
+      <c r="P33" s="258"/>
+    </row>
+    <row r="34" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E34" s="135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="149">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="G34" s="149">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="H34" s="149">
+        <v>106764</v>
+      </c>
+      <c r="I34" s="150">
+        <v>25147</v>
+      </c>
+      <c r="J34" s="218">
+        <v>7.2218925741742809E-2</v>
+      </c>
+      <c r="K34" s="218">
+        <v>8.0872271629461645E-2</v>
+      </c>
+      <c r="L34" s="218">
+        <v>4.9024584521870516</v>
+      </c>
+      <c r="M34" s="218">
+        <v>0.10222636088062211</v>
+      </c>
+      <c r="N34" s="196">
+        <v>12</v>
+      </c>
+      <c r="O34" s="143">
+        <v>0</v>
+      </c>
+      <c r="P34" s="193">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E35" s="136" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="149">
+        <v>1.72</v>
+      </c>
+      <c r="G35" s="149">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="H35" s="149">
+        <v>58728</v>
+      </c>
+      <c r="I35" s="150">
+        <v>29085</v>
+      </c>
+      <c r="J35" s="218">
+        <v>0.99733996731630592</v>
+      </c>
+      <c r="K35" s="218">
+        <v>0.71832511900333473</v>
+      </c>
+      <c r="L35" s="218">
+        <v>2.4145408560895718</v>
+      </c>
+      <c r="M35" s="218">
+        <v>0.69545172345291428</v>
+      </c>
+      <c r="N35" s="197">
+        <v>6</v>
+      </c>
+      <c r="O35" s="141">
+        <v>6</v>
+      </c>
+      <c r="P35" s="194">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="5:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="142">
+        <v>1.6</v>
+      </c>
+      <c r="G36" s="142">
+        <v>0.753</v>
+      </c>
+      <c r="H36" s="142">
+        <v>25.5</v>
+      </c>
+      <c r="I36" s="142">
+        <v>13.4</v>
+      </c>
+      <c r="J36" s="219">
+        <v>0.83101133031410823</v>
+      </c>
+      <c r="K36" s="220">
+        <v>0.66617586500273451</v>
+      </c>
+      <c r="L36" s="220">
+        <v>0.89291114104326164</v>
+      </c>
+      <c r="M36" s="221">
+        <v>0.23490988658516759</v>
+      </c>
+      <c r="N36" s="198">
+        <v>2</v>
+      </c>
+      <c r="O36" s="199">
+        <v>8</v>
+      </c>
+      <c r="P36" s="195">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="29">
+    <mergeCell ref="E29:O30"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:P31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="F3:P3"/>
+    <mergeCell ref="E12:O13"/>
+    <mergeCell ref="E1:O2"/>
     <mergeCell ref="O21:O22"/>
     <mergeCell ref="O15:O16"/>
     <mergeCell ref="F14:O14"/>
@@ -5274,11 +5997,6 @@
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="J21:M21"/>
     <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="F3:P3"/>
-    <mergeCell ref="E12:O13"/>
-    <mergeCell ref="E1:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5286,6 +6004,337 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCC685F-EBD1-4241-AA87-11DA72E6BA3C}">
+  <dimension ref="B1:F22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="184" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="261" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="263"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>16.3146150499818</v>
+      </c>
+      <c r="E4" s="222">
+        <v>1.07350331260245E-4</v>
+      </c>
+      <c r="F4" s="228">
+        <v>3.2205099378073597E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>5.6795670617009897</v>
+      </c>
+      <c r="E5">
+        <v>1.9033231425925098E-2</v>
+      </c>
+      <c r="F5" s="67">
+        <v>1.9033231425925098E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7.75258661741716</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6.4855387818994401E-3</v>
+      </c>
+      <c r="F6" s="204">
+        <v>9.7283081728491601E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="261" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="263"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>11.9877140310676</v>
+      </c>
+      <c r="E10" s="225">
+        <v>2.4604981658541401E-3</v>
+      </c>
+      <c r="F10" s="67">
+        <v>3.6907472487812199E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>22.159711936654201</v>
+      </c>
+      <c r="E11" s="226">
+        <v>1.07243661628223E-4</v>
+      </c>
+      <c r="F11" s="228">
+        <v>3.2173098488466899E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4.9513328069961604</v>
+      </c>
+      <c r="E12" s="227">
+        <v>3.7738894859592802E-2</v>
+      </c>
+      <c r="F12" s="204">
+        <v>3.7738894859592802E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="261" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="262"/>
+      <c r="D13" s="262"/>
+      <c r="E13" s="262"/>
+      <c r="F13" s="263"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="207" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="206" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="206" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" s="206" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="223" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="207" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="206" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="206">
+        <v>3.3693181700000001</v>
+      </c>
+      <c r="E15" s="206">
+        <v>8.1336430000000001E-2</v>
+      </c>
+      <c r="F15" s="223">
+        <v>0.12200464</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="207" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="206" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="224">
+        <v>3.6799999999999999E-6</v>
+      </c>
+      <c r="E16" s="206">
+        <v>0.99848577999999999</v>
+      </c>
+      <c r="F16" s="223">
+        <v>0.99848577999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="208" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="9">
+        <v>7.9242502000000004</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1.0695949999999999E-2</v>
+      </c>
+      <c r="F17" s="229">
+        <v>3.2087850000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="261" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="262"/>
+      <c r="D18" s="262"/>
+      <c r="E18" s="262"/>
+      <c r="F18" s="263"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" t="s">
+        <v>237</v>
+      </c>
+      <c r="E19" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>7.2174969623329304</v>
+      </c>
+      <c r="E20">
+        <v>1.41895349165945E-2</v>
+      </c>
+      <c r="F20" s="67">
+        <v>2.1284302374891699E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>0.22485690923957399</v>
+      </c>
+      <c r="E21">
+        <v>0.64003646170245199</v>
+      </c>
+      <c r="F21" s="68">
+        <v>0.64003646170245199</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="4">
+        <v>7.44708674383687</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1.29313333834446E-2</v>
+      </c>
+      <c r="F22" s="204">
+        <v>2.1284302374891699E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FA0919-023E-0748-8817-9142AFFB3DF4}">
   <dimension ref="B2:G22"/>
   <sheetViews>
@@ -5301,24 +6350,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="238" t="s">
+      <c r="B2" s="271" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="239"/>
-      <c r="E2" s="242"/>
+      <c r="C2" s="272"/>
+      <c r="E2" s="275"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="247" t="s">
+      <c r="B3" s="280" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="240" t="s">
+      <c r="C3" s="273" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="242"/>
+      <c r="E3" s="275"/>
     </row>
     <row r="4" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="247"/>
-      <c r="C4" s="241"/>
+      <c r="B4" s="280"/>
+      <c r="C4" s="274"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="23" t="s">
@@ -5356,26 +6405,26 @@
     <row r="10" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="11"/>
-      <c r="D11" s="235" t="s">
-        <v>220</v>
-      </c>
-      <c r="E11" s="236"/>
-      <c r="F11" s="236"/>
-      <c r="G11" s="237"/>
+      <c r="D11" s="268" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="269"/>
+      <c r="F11" s="269"/>
+      <c r="G11" s="270"/>
     </row>
     <row r="12" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="245" t="s">
+      <c r="D12" s="278" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="231"/>
-      <c r="F12" s="231"/>
-      <c r="G12" s="232" t="s">
+      <c r="E12" s="264"/>
+      <c r="F12" s="264"/>
+      <c r="G12" s="265" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="243"/>
-      <c r="C13" s="243"/>
+      <c r="B13" s="276"/>
+      <c r="C13" s="276"/>
       <c r="D13" s="29" t="s">
         <v>31</v>
       </c>
@@ -5385,11 +6434,11 @@
       <c r="F13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="246"/>
+      <c r="G13" s="279"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="244"/>
-      <c r="C14" s="244"/>
+      <c r="B14" s="277"/>
+      <c r="C14" s="277"/>
       <c r="D14" s="30">
         <v>46</v>
       </c>
@@ -5406,29 +6455,29 @@
     </row>
     <row r="16" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="235" t="s">
-        <v>219</v>
-      </c>
-      <c r="D17" s="236"/>
-      <c r="E17" s="236"/>
-      <c r="F17" s="236"/>
-      <c r="G17" s="237"/>
+      <c r="C17" s="268" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="269"/>
+      <c r="E17" s="269"/>
+      <c r="F17" s="269"/>
+      <c r="G17" s="270"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C18" s="234" t="s">
-        <v>204</v>
-      </c>
-      <c r="D18" s="231" t="s">
+      <c r="C18" s="267" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="264" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="231"/>
-      <c r="F18" s="231"/>
-      <c r="G18" s="232" t="s">
+      <c r="E18" s="264"/>
+      <c r="F18" s="264"/>
+      <c r="G18" s="265" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="234"/>
+      <c r="C19" s="267"/>
       <c r="D19" s="134" t="s">
         <v>31</v>
       </c>
@@ -5438,7 +6487,7 @@
       <c r="F19" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="233"/>
+      <c r="G19" s="266"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C20" s="161">
@@ -5517,11 +6566,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB4537B-0B5B-694E-BF78-26519239A8E0}">
   <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="169" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="169" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -5538,65 +6587,65 @@
     <row r="8" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="248" t="s">
+      <c r="B10" s="281" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="53" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="54"/>
-      <c r="E10" s="250" t="s">
+      <c r="E10" s="283" t="s">
         <v>55</v>
       </c>
       <c r="F10" s="54"/>
-      <c r="G10" s="253" t="s">
+      <c r="G10" s="286" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="254"/>
-      <c r="I10" s="254"/>
-      <c r="J10" s="254"/>
-      <c r="K10" s="254"/>
-      <c r="L10" s="255"/>
+      <c r="H10" s="287"/>
+      <c r="I10" s="287"/>
+      <c r="J10" s="287"/>
+      <c r="K10" s="287"/>
+      <c r="L10" s="288"/>
     </row>
     <row r="11" spans="2:12" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="249"/>
-      <c r="C11" s="256" t="s">
+      <c r="B11" s="282"/>
+      <c r="C11" s="289" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="47"/>
-      <c r="E11" s="251"/>
+      <c r="E11" s="284"/>
       <c r="F11" s="47"/>
-      <c r="G11" s="235" t="s">
+      <c r="G11" s="268" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="236"/>
-      <c r="I11" s="236"/>
-      <c r="J11" s="236"/>
-      <c r="K11" s="236"/>
-      <c r="L11" s="237"/>
+      <c r="H11" s="269"/>
+      <c r="I11" s="269"/>
+      <c r="J11" s="269"/>
+      <c r="K11" s="269"/>
+      <c r="L11" s="270"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="249"/>
-      <c r="C12" s="257"/>
+      <c r="B12" s="282"/>
+      <c r="C12" s="290"/>
       <c r="D12" s="48"/>
-      <c r="E12" s="251"/>
+      <c r="E12" s="284"/>
       <c r="F12" s="48"/>
-      <c r="G12" s="259" t="s">
+      <c r="G12" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="260"/>
-      <c r="I12" s="260"/>
-      <c r="J12" s="260"/>
-      <c r="K12" s="261"/>
-      <c r="L12" s="262" t="s">
+      <c r="H12" s="293"/>
+      <c r="I12" s="293"/>
+      <c r="J12" s="293"/>
+      <c r="K12" s="294"/>
+      <c r="L12" s="295" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="249"/>
-      <c r="C13" s="258"/>
+      <c r="B13" s="282"/>
+      <c r="C13" s="291"/>
       <c r="D13" s="49"/>
-      <c r="E13" s="252"/>
+      <c r="E13" s="285"/>
       <c r="F13" s="49"/>
       <c r="G13" s="32">
         <v>0</v>
@@ -5613,7 +6662,7 @@
       <c r="K13" s="20">
         <v>7000</v>
       </c>
-      <c r="L13" s="263"/>
+      <c r="L13" s="296"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="55" t="s">
@@ -5767,12 +6816,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5825DAF-5F9A-A341-82D6-10BBDADFFBA0}">
   <dimension ref="B1:K65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5788,16 +6837,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="266" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="268"/>
+      <c r="B1" s="299" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="301"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="66" t="s">
@@ -5842,10 +6891,10 @@
         <v>79</v>
       </c>
       <c r="G3" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s">
         <v>101</v>
-      </c>
-      <c r="H3" t="s">
-        <v>102</v>
       </c>
       <c r="I3" s="68" t="s">
         <v>92</v>
@@ -5894,10 +6943,10 @@
         <v>78</v>
       </c>
       <c r="G5" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
         <v>101</v>
-      </c>
-      <c r="H5" t="s">
-        <v>102</v>
       </c>
       <c r="I5" s="68" t="s">
         <v>92</v>
@@ -5920,10 +6969,10 @@
         <v>82</v>
       </c>
       <c r="G6" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
         <v>101</v>
-      </c>
-      <c r="H6" t="s">
-        <v>102</v>
       </c>
       <c r="I6" s="68" t="s">
         <v>92</v>
@@ -5946,10 +6995,10 @@
         <v>80</v>
       </c>
       <c r="G7" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
         <v>101</v>
-      </c>
-      <c r="H7" t="s">
-        <v>102</v>
       </c>
       <c r="I7" s="68" t="s">
         <v>92</v>
@@ -6096,17 +7145,17 @@
       <c r="I13" s="71"/>
     </row>
     <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="274" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="275"/>
-      <c r="D15" s="275"/>
-      <c r="E15" s="275"/>
-      <c r="F15" s="275"/>
-      <c r="G15" s="275"/>
-      <c r="H15" s="275"/>
-      <c r="I15" s="275"/>
-      <c r="J15" s="275"/>
+      <c r="B15" s="307" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="308"/>
+      <c r="D15" s="308"/>
+      <c r="E15" s="308"/>
+      <c r="F15" s="308"/>
+      <c r="G15" s="308"/>
+      <c r="H15" s="308"/>
+      <c r="I15" s="308"/>
+      <c r="J15" s="308"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="66" t="s">
@@ -6134,10 +7183,10 @@
         <v>94</v>
       </c>
       <c r="J16" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="51" x14ac:dyDescent="0.2">
@@ -6154,7 +7203,7 @@
         <v>95</v>
       </c>
       <c r="F17" s="65" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="G17" t="s">
         <v>91</v>
@@ -6166,13 +7215,13 @@
         <v>93</v>
       </c>
       <c r="J17" s="79" t="s">
-        <v>115</v>
+        <v>243</v>
       </c>
       <c r="K17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B18" s="33">
         <v>2453</v>
       </c>
@@ -6183,10 +7232,10 @@
         <v>7000</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="65" t="s">
-        <v>99</v>
+        <v>246</v>
       </c>
       <c r="G18" t="s">
         <v>91</v>
@@ -6198,7 +7247,10 @@
         <v>93</v>
       </c>
       <c r="J18" s="79" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="K18" s="336" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6212,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" s="70"/>
       <c r="G19" s="4" t="s">
@@ -6225,7 +7277,7 @@
         <v>93</v>
       </c>
       <c r="J19" s="78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6233,20 +7285,20 @@
       <c r="F20" s="65"/>
     </row>
     <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="276" t="s">
-        <v>224</v>
-      </c>
-      <c r="C21" s="277"/>
-      <c r="D21" s="277"/>
-      <c r="E21" s="278"/>
+      <c r="B21" s="309" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="310"/>
+      <c r="D21" s="310"/>
+      <c r="E21" s="311"/>
       <c r="F21" s="65"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="160" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="160" t="s">
         <v>221</v>
-      </c>
-      <c r="C22" s="160" t="s">
-        <v>223</v>
       </c>
       <c r="D22" s="160" t="s">
         <v>65</v>
@@ -6256,7 +7308,7 @@
       </c>
       <c r="F22" s="65"/>
       <c r="G22" s="176" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H22" s="176" t="s">
         <v>65</v>
@@ -6279,7 +7331,7 @@
         <v>7000</v>
       </c>
       <c r="F23" s="169"/>
-      <c r="G23" s="279">
+      <c r="G23" s="312">
         <v>14</v>
       </c>
       <c r="H23" t="s">
@@ -6303,7 +7355,7 @@
         <v>7000</v>
       </c>
       <c r="F24" s="169"/>
-      <c r="G24" s="279"/>
+      <c r="G24" s="312"/>
       <c r="H24" t="s">
         <v>14</v>
       </c>
@@ -6325,7 +7377,7 @@
         <v>30</v>
       </c>
       <c r="F25" s="169"/>
-      <c r="G25" s="279">
+      <c r="G25" s="312">
         <v>41</v>
       </c>
       <c r="H25" t="s">
@@ -6349,7 +7401,7 @@
         <v>7000</v>
       </c>
       <c r="F26" s="169"/>
-      <c r="G26" s="279"/>
+      <c r="G26" s="312"/>
       <c r="H26" t="s">
         <v>14</v>
       </c>
@@ -6545,30 +7597,30 @@
     </row>
     <row r="39" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="266" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="267"/>
-      <c r="D40" s="267"/>
-      <c r="E40" s="267"/>
-      <c r="F40" s="267"/>
-      <c r="G40" s="267"/>
-      <c r="H40" s="267"/>
-      <c r="I40" s="268"/>
+      <c r="B40" s="299" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="300"/>
+      <c r="D40" s="300"/>
+      <c r="E40" s="300"/>
+      <c r="F40" s="300"/>
+      <c r="G40" s="300"/>
+      <c r="H40" s="300"/>
+      <c r="I40" s="301"/>
     </row>
     <row r="41" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="271" t="s">
+      <c r="B41" s="304" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="302"/>
+      <c r="E41" s="305" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="269"/>
-      <c r="E41" s="272" t="s">
-        <v>104</v>
-      </c>
-      <c r="F41" s="272"/>
-      <c r="H41" s="269" t="s">
-        <v>111</v>
-      </c>
-      <c r="I41" s="270"/>
+      <c r="F41" s="305"/>
+      <c r="H41" s="302" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" s="303"/>
     </row>
     <row r="42" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B42" s="72" t="s">
@@ -6581,7 +7633,7 @@
         <v>65</v>
       </c>
       <c r="F42" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H42" s="63" t="s">
         <v>65</v>
@@ -6651,18 +7703,18 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="273" t="s">
+      <c r="B46" s="306" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="264"/>
-      <c r="E46" s="264" t="s">
+      <c r="C46" s="297"/>
+      <c r="E46" s="297" t="s">
         <v>76</v>
       </c>
-      <c r="F46" s="264"/>
-      <c r="H46" s="264" t="s">
+      <c r="F46" s="297"/>
+      <c r="H46" s="297" t="s">
         <v>76</v>
       </c>
-      <c r="I46" s="265"/>
+      <c r="I46" s="298"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="74">
@@ -6766,21 +7818,21 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C52" s="64">
         <f>SUM(C47:C51)</f>
         <v>156</v>
       </c>
       <c r="E52" s="64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F52" s="64">
         <f>SUM(F47:F51)</f>
         <v>6</v>
       </c>
       <c r="H52" s="64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I52" s="73">
         <f>SUM(I47:I51)</f>
@@ -6793,14 +7845,14 @@
     </row>
     <row r="54" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="33"/>
-      <c r="E54" s="272" t="s">
-        <v>106</v>
-      </c>
-      <c r="F54" s="272"/>
-      <c r="H54" s="269" t="s">
+      <c r="E54" s="305" t="s">
         <v>105</v>
       </c>
-      <c r="I54" s="270"/>
+      <c r="F54" s="305"/>
+      <c r="H54" s="302" t="s">
+        <v>104</v>
+      </c>
+      <c r="I54" s="303"/>
     </row>
     <row r="55" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="33"/>
@@ -6808,7 +7860,7 @@
         <v>65</v>
       </c>
       <c r="F55" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H55" s="63" t="s">
         <v>65</v>
@@ -6864,14 +7916,14 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="33"/>
-      <c r="E59" s="264" t="s">
+      <c r="E59" s="297" t="s">
         <v>76</v>
       </c>
-      <c r="F59" s="264"/>
-      <c r="H59" s="264" t="s">
+      <c r="F59" s="297"/>
+      <c r="H59" s="297" t="s">
         <v>76</v>
       </c>
-      <c r="I59" s="265"/>
+      <c r="I59" s="298"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="33"/>
@@ -6953,7 +8005,7 @@
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F65" s="75">
         <f>SUM(F60:F64)</f>
@@ -6961,7 +8013,7 @@
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I65" s="76">
         <f>SUM(I60:I64)</f>
@@ -6991,7 +8043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1F6E66-F2E1-304E-98A0-1E9BF39CB325}">
   <dimension ref="A1:M13"/>
   <sheetViews>
@@ -7006,30 +8058,30 @@
   <sheetData>
     <row r="1" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A1" s="65" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="242"/>
-      <c r="C3" s="242"/>
-      <c r="D3" s="269" t="s">
-        <v>202</v>
-      </c>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
-      <c r="G3" s="269"/>
-      <c r="H3" s="269"/>
-      <c r="I3" s="269" t="s">
-        <v>203</v>
-      </c>
-      <c r="J3" s="269"/>
-      <c r="K3" s="269"/>
-      <c r="L3" s="269"/>
-      <c r="M3" s="269"/>
+      <c r="B3" s="275"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="302" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="302"/>
+      <c r="F3" s="302"/>
+      <c r="G3" s="302"/>
+      <c r="H3" s="302"/>
+      <c r="I3" s="302" t="s">
+        <v>201</v>
+      </c>
+      <c r="J3" s="302"/>
+      <c r="K3" s="302"/>
+      <c r="L3" s="302"/>
+      <c r="M3" s="302"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="80" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C4" s="80" t="s">
         <v>65</v>
@@ -7038,13 +8090,13 @@
         <v>67</v>
       </c>
       <c r="E4" s="80" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" s="80" t="s">
         <v>205</v>
-      </c>
-      <c r="F4" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="G4" s="80" t="s">
-        <v>207</v>
       </c>
       <c r="H4" s="80" t="s">
         <v>93</v>
@@ -7053,13 +8105,13 @@
         <v>67</v>
       </c>
       <c r="J4" s="80" t="s">
+        <v>203</v>
+      </c>
+      <c r="K4" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="L4" s="80" t="s">
         <v>205</v>
-      </c>
-      <c r="K4" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="L4" s="80" t="s">
-        <v>207</v>
       </c>
       <c r="M4" s="80" t="s">
         <v>93</v>
@@ -7415,495 +8467,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2703868A-3146-CD4D-92FF-10AE08C79280}">
-  <dimension ref="A1:J25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
-    <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="31.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="22"/>
-      <c r="B1" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="87" t="s">
-        <v>121</v>
-      </c>
-      <c r="I1" s="87" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B2" s="297" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="299" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="282" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="286" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="286" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="93" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" s="93" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2" s="286" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="297"/>
-      <c r="C3" s="300"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="280"/>
-      <c r="F3" s="280"/>
-      <c r="G3" s="280" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" s="280"/>
-    </row>
-    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B4" s="297"/>
-      <c r="C4" s="300"/>
-      <c r="D4" s="282"/>
-      <c r="E4" s="280"/>
-      <c r="F4" s="280" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" s="280"/>
-      <c r="H4" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" s="280"/>
-      <c r="J4" s="81"/>
-    </row>
-    <row r="5" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="297"/>
-      <c r="C5" s="301"/>
-      <c r="D5" s="114" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" s="287"/>
-      <c r="F5" s="280"/>
-      <c r="G5" s="280"/>
-      <c r="H5" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="I5" s="280"/>
-      <c r="J5" s="81"/>
-    </row>
-    <row r="6" spans="1:10" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="298"/>
-      <c r="C6" s="301"/>
-      <c r="D6" s="115" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="287"/>
-      <c r="F6" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="280"/>
-      <c r="H6" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="I6" s="280"/>
-      <c r="J6" s="81"/>
-    </row>
-    <row r="7" spans="1:10" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="96" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="116" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="118" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7" s="102" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" s="99" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7" s="100" t="s">
-        <v>170</v>
-      </c>
-      <c r="I7" s="98"/>
-      <c r="J7" s="81"/>
-    </row>
-    <row r="8" spans="1:10" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="289" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="280" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="281" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="283" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="280" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="H8" s="84" t="s">
-        <v>157</v>
-      </c>
-      <c r="I8" s="84" t="s">
-        <v>142</v>
-      </c>
-      <c r="J8" s="81"/>
-    </row>
-    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B9" s="290"/>
-      <c r="C9" s="280"/>
-      <c r="D9" s="282"/>
-      <c r="E9" s="283"/>
-      <c r="F9" s="280"/>
-      <c r="G9" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="H9" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="I9" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="J9" s="81"/>
-    </row>
-    <row r="10" spans="1:10" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="290"/>
-      <c r="C10" s="295" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="114" t="s">
-        <v>191</v>
-      </c>
-      <c r="E10" s="288"/>
-      <c r="F10" s="280" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="84" t="s">
-        <v>155</v>
-      </c>
-      <c r="H10" s="84" t="s">
-        <v>195</v>
-      </c>
-      <c r="I10" s="84" t="s">
-        <v>144</v>
-      </c>
-      <c r="J10" s="81"/>
-    </row>
-    <row r="11" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="B11" s="302"/>
-      <c r="C11" s="295"/>
-      <c r="D11" s="115" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" s="288"/>
-      <c r="F11" s="280"/>
-      <c r="G11" s="90" t="s">
-        <v>156</v>
-      </c>
-      <c r="H11" s="90" t="s">
-        <v>159</v>
-      </c>
-      <c r="I11" s="90" t="s">
-        <v>145</v>
-      </c>
-      <c r="J11" s="81"/>
-    </row>
-    <row r="12" spans="1:10" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="101" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="113" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="117" t="s">
-        <v>152</v>
-      </c>
-      <c r="F12" s="102" t="s">
-        <v>199</v>
-      </c>
-      <c r="G12" s="125" t="s">
-        <v>169</v>
-      </c>
-      <c r="H12" s="104"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="81"/>
-    </row>
-    <row r="13" spans="1:10" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="292" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="286" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13" s="109" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E13" s="296" t="s">
-        <v>152</v>
-      </c>
-      <c r="F13" s="93" t="s">
-        <v>176</v>
-      </c>
-      <c r="G13" s="92" t="s">
-        <v>178</v>
-      </c>
-      <c r="H13" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="I13" s="93" t="s">
-        <v>182</v>
-      </c>
-      <c r="J13" s="81"/>
-    </row>
-    <row r="14" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="293"/>
-      <c r="C14" s="295"/>
-      <c r="D14" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="E14" s="288"/>
-      <c r="F14" s="280" t="s">
-        <v>177</v>
-      </c>
-      <c r="G14" s="89" t="s">
-        <v>154</v>
-      </c>
-      <c r="H14" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="I14" s="280" t="s">
-        <v>183</v>
-      </c>
-      <c r="J14" s="81"/>
-    </row>
-    <row r="15" spans="1:10" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="293"/>
-      <c r="C15" s="295"/>
-      <c r="D15" s="112" t="s">
-        <v>190</v>
-      </c>
-      <c r="E15" s="288"/>
-      <c r="F15" s="280"/>
-      <c r="G15" s="283" t="s">
-        <v>163</v>
-      </c>
-      <c r="H15" s="280" t="s">
-        <v>181</v>
-      </c>
-      <c r="I15" s="280"/>
-      <c r="J15" s="81"/>
-    </row>
-    <row r="16" spans="1:10" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="294"/>
-      <c r="C16" s="295"/>
-      <c r="D16" s="91" t="s">
-        <v>175</v>
-      </c>
-      <c r="E16" s="288"/>
-      <c r="F16" s="280"/>
-      <c r="G16" s="283"/>
-      <c r="H16" s="281"/>
-      <c r="I16" s="281"/>
-      <c r="J16" s="81"/>
-    </row>
-    <row r="17" spans="2:10" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="106" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="107" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="110" t="s">
-        <v>173</v>
-      </c>
-      <c r="E17" s="117" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="102" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="108" t="s">
-        <v>188</v>
-      </c>
-      <c r="H17" s="103"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="81"/>
-    </row>
-    <row r="18" spans="2:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="289" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="280" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="89" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E18" s="283" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="280" t="s">
-        <v>161</v>
-      </c>
-      <c r="G18" s="89" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" s="88" t="s">
-        <v>185</v>
-      </c>
-      <c r="I18" s="85" t="s">
-        <v>187</v>
-      </c>
-      <c r="J18" s="81"/>
-    </row>
-    <row r="19" spans="2:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="B19" s="290"/>
-      <c r="C19" s="280"/>
-      <c r="D19" s="86" t="s">
-        <v>196</v>
-      </c>
-      <c r="E19" s="283"/>
-      <c r="F19" s="280"/>
-      <c r="G19" s="89" t="s">
-        <v>163</v>
-      </c>
-      <c r="H19" s="280" t="s">
-        <v>184</v>
-      </c>
-      <c r="I19" s="280" t="s">
-        <v>186</v>
-      </c>
-      <c r="J19" s="81"/>
-    </row>
-    <row r="20" spans="2:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="B20" s="290"/>
-      <c r="C20" s="280"/>
-      <c r="D20" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="E20" s="283"/>
-      <c r="F20" s="280"/>
-      <c r="G20" s="89" t="s">
-        <v>154</v>
-      </c>
-      <c r="H20" s="280"/>
-      <c r="I20" s="280"/>
-      <c r="J20" s="81"/>
-    </row>
-    <row r="21" spans="2:10" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="291"/>
-      <c r="C21" s="285"/>
-      <c r="D21" s="94" t="s">
-        <v>198</v>
-      </c>
-      <c r="E21" s="284"/>
-      <c r="F21" s="285"/>
-      <c r="G21" s="95" t="s">
-        <v>164</v>
-      </c>
-      <c r="H21" s="285"/>
-      <c r="I21" s="285"/>
-      <c r="J21" s="81"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J22" s="81"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J23" s="81"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J24" s="81"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J25" s="81"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="E8:E11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>